--- a/project_code/DescEmb/outputs/experiments.xlsx
+++ b/project_code/DescEmb/outputs/experiments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5407,6 +5407,236 @@
         <v>0.089</v>
       </c>
     </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-19/06-09-19</t>
+        </is>
+      </c>
+      <c r="B139" t="b">
+        <v>0</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>mlm</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-19/06-10-24</t>
+        </is>
+      </c>
+      <c r="B140" t="b">
+        <v>0</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>mlm</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-19/06-11-39</t>
+        </is>
+      </c>
+      <c r="B141" t="b">
+        <v>0</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>mlm</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-19/06-16-24</t>
+        </is>
+      </c>
+      <c r="B142" t="b">
+        <v>0</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-19/06-16-52</t>
+        </is>
+      </c>
+      <c r="B143" t="b">
+        <v>0</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>mlm</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-19/06-18-04</t>
+        </is>
+      </c>
+      <c r="B144" t="b">
+        <v>1</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>mlm</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-19/15-55-40</t>
+        </is>
+      </c>
+      <c r="B145" t="b">
+        <v>1</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>mlm</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/project_code/DescEmb/outputs/experiments.xlsx
+++ b/project_code/DescEmb/outputs/experiments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:H275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5637,6 +5637,4648 @@
         <v>0</v>
       </c>
     </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/06-28-23</t>
+        </is>
+      </c>
+      <c r="B146" t="b">
+        <v>0</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/06-28-27</t>
+        </is>
+      </c>
+      <c r="B147" t="b">
+        <v>0</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/06-28-31</t>
+        </is>
+      </c>
+      <c r="B148" t="b">
+        <v>0</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/06-28-34</t>
+        </is>
+      </c>
+      <c r="B149" t="b">
+        <v>0</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/06-28-38</t>
+        </is>
+      </c>
+      <c r="B150" t="b">
+        <v>0</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/06-28-41</t>
+        </is>
+      </c>
+      <c r="B151" t="b">
+        <v>0</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/06-28-45</t>
+        </is>
+      </c>
+      <c r="B152" t="b">
+        <v>0</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/06-28-48</t>
+        </is>
+      </c>
+      <c r="B153" t="b">
+        <v>0</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/06-28-52</t>
+        </is>
+      </c>
+      <c r="B154" t="b">
+        <v>0</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/06-28-55</t>
+        </is>
+      </c>
+      <c r="B155" t="b">
+        <v>0</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/06-28-59</t>
+        </is>
+      </c>
+      <c r="B156" t="b">
+        <v>0</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/06-29-02</t>
+        </is>
+      </c>
+      <c r="B157" t="b">
+        <v>0</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/06-29-06</t>
+        </is>
+      </c>
+      <c r="B158" t="b">
+        <v>0</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/06-29-09</t>
+        </is>
+      </c>
+      <c r="B159" t="b">
+        <v>0</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/06-29-13</t>
+        </is>
+      </c>
+      <c r="B160" t="b">
+        <v>0</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/06-29-16</t>
+        </is>
+      </c>
+      <c r="B161" t="b">
+        <v>0</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/06-29-19</t>
+        </is>
+      </c>
+      <c r="B162" t="b">
+        <v>0</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/06-29-24</t>
+        </is>
+      </c>
+      <c r="B163" t="b">
+        <v>0</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/06-30-04</t>
+        </is>
+      </c>
+      <c r="B164" t="b">
+        <v>0</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/06-34-07</t>
+        </is>
+      </c>
+      <c r="B165" t="b">
+        <v>0</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/06-34-11</t>
+        </is>
+      </c>
+      <c r="B166" t="b">
+        <v>0</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/06-34-46</t>
+        </is>
+      </c>
+      <c r="B167" t="b">
+        <v>0</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/06-35-54</t>
+        </is>
+      </c>
+      <c r="B168" t="b">
+        <v>0</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/06-36-12</t>
+        </is>
+      </c>
+      <c r="B169" t="b">
+        <v>0</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/06-37-46</t>
+        </is>
+      </c>
+      <c r="B170" t="b">
+        <v>0</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/06-38-25</t>
+        </is>
+      </c>
+      <c r="B171" t="b">
+        <v>0</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/06-38-57</t>
+        </is>
+      </c>
+      <c r="B172" t="b">
+        <v>0</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/06-39-24</t>
+        </is>
+      </c>
+      <c r="B173" t="b">
+        <v>0</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/06-40-31</t>
+        </is>
+      </c>
+      <c r="B174" t="b">
+        <v>0</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/06-40-49</t>
+        </is>
+      </c>
+      <c r="B175" t="b">
+        <v>0</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/06-56-47</t>
+        </is>
+      </c>
+      <c r="B176" t="b">
+        <v>1</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/07-14-17</t>
+        </is>
+      </c>
+      <c r="B177" t="b">
+        <v>0</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/07-14-57</t>
+        </is>
+      </c>
+      <c r="B178" t="b">
+        <v>1</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/07-36-54</t>
+        </is>
+      </c>
+      <c r="B179" t="b">
+        <v>0</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/07-36-58</t>
+        </is>
+      </c>
+      <c r="B180" t="b">
+        <v>1</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/07-54-33</t>
+        </is>
+      </c>
+      <c r="B181" t="b">
+        <v>1</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>0.091</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/08-06-10</t>
+        </is>
+      </c>
+      <c r="B182" t="b">
+        <v>1</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>0.089</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/08-16-53</t>
+        </is>
+      </c>
+      <c r="B183" t="b">
+        <v>0</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/08-17-28</t>
+        </is>
+      </c>
+      <c r="B184" t="b">
+        <v>0</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/08-17-32</t>
+        </is>
+      </c>
+      <c r="B185" t="b">
+        <v>1</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/08-32-45</t>
+        </is>
+      </c>
+      <c r="B186" t="b">
+        <v>1</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>0.354</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/08-47-43</t>
+        </is>
+      </c>
+      <c r="B187" t="b">
+        <v>0</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/08-48-44</t>
+        </is>
+      </c>
+      <c r="B188" t="b">
+        <v>1</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>0.352</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/09-18-47</t>
+        </is>
+      </c>
+      <c r="B189" t="b">
+        <v>0</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/09-18-51</t>
+        </is>
+      </c>
+      <c r="B190" t="b">
+        <v>1</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>0.353</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/09-42-05</t>
+        </is>
+      </c>
+      <c r="B191" t="b">
+        <v>1</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>0.131</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/10-02-57</t>
+        </is>
+      </c>
+      <c r="B192" t="b">
+        <v>1</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>0.132</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/10-36-46</t>
+        </is>
+      </c>
+      <c r="B193" t="b">
+        <v>1</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>0.132</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/11-07-23</t>
+        </is>
+      </c>
+      <c r="B194" t="b">
+        <v>0</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/11-07-27</t>
+        </is>
+      </c>
+      <c r="B195" t="b">
+        <v>1</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/11-24-22</t>
+        </is>
+      </c>
+      <c r="B196" t="b">
+        <v>1</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>0.638</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/12-00-08</t>
+        </is>
+      </c>
+      <c r="B197" t="b">
+        <v>1</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>0.641</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/13-31-50</t>
+        </is>
+      </c>
+      <c r="B198" t="b">
+        <v>0</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/13-32-25</t>
+        </is>
+      </c>
+      <c r="B199" t="b">
+        <v>0</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/13-32-29</t>
+        </is>
+      </c>
+      <c r="B200" t="b">
+        <v>1</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>0.644</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-29-03</t>
+        </is>
+      </c>
+      <c r="B201" t="b">
+        <v>0</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-29-10</t>
+        </is>
+      </c>
+      <c r="B202" t="b">
+        <v>0</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-29-14</t>
+        </is>
+      </c>
+      <c r="B203" t="b">
+        <v>0</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-29-18</t>
+        </is>
+      </c>
+      <c r="B204" t="b">
+        <v>0</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-29-22</t>
+        </is>
+      </c>
+      <c r="B205" t="b">
+        <v>0</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-29-26</t>
+        </is>
+      </c>
+      <c r="B206" t="b">
+        <v>0</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-29-30</t>
+        </is>
+      </c>
+      <c r="B207" t="b">
+        <v>0</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-29-34</t>
+        </is>
+      </c>
+      <c r="B208" t="b">
+        <v>0</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-29-38</t>
+        </is>
+      </c>
+      <c r="B209" t="b">
+        <v>0</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-29-42</t>
+        </is>
+      </c>
+      <c r="B210" t="b">
+        <v>0</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-29-47</t>
+        </is>
+      </c>
+      <c r="B211" t="b">
+        <v>0</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-29-51</t>
+        </is>
+      </c>
+      <c r="B212" t="b">
+        <v>0</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-29-55</t>
+        </is>
+      </c>
+      <c r="B213" t="b">
+        <v>0</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-29-59</t>
+        </is>
+      </c>
+      <c r="B214" t="b">
+        <v>0</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-30-03</t>
+        </is>
+      </c>
+      <c r="B215" t="b">
+        <v>0</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-30-08</t>
+        </is>
+      </c>
+      <c r="B216" t="b">
+        <v>0</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-30-12</t>
+        </is>
+      </c>
+      <c r="B217" t="b">
+        <v>0</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-30-16</t>
+        </is>
+      </c>
+      <c r="B218" t="b">
+        <v>0</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-30-20</t>
+        </is>
+      </c>
+      <c r="B219" t="b">
+        <v>0</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-30-24</t>
+        </is>
+      </c>
+      <c r="B220" t="b">
+        <v>0</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-30-28</t>
+        </is>
+      </c>
+      <c r="B221" t="b">
+        <v>0</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-30-33</t>
+        </is>
+      </c>
+      <c r="B222" t="b">
+        <v>0</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-30-37</t>
+        </is>
+      </c>
+      <c r="B223" t="b">
+        <v>0</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-30-41</t>
+        </is>
+      </c>
+      <c r="B224" t="b">
+        <v>0</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-30-45</t>
+        </is>
+      </c>
+      <c r="B225" t="b">
+        <v>0</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-30-49</t>
+        </is>
+      </c>
+      <c r="B226" t="b">
+        <v>0</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-31-15</t>
+        </is>
+      </c>
+      <c r="B227" t="b">
+        <v>0</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-31-42</t>
+        </is>
+      </c>
+      <c r="B228" t="b">
+        <v>0</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-32-13</t>
+        </is>
+      </c>
+      <c r="B229" t="b">
+        <v>0</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-32-18</t>
+        </is>
+      </c>
+      <c r="B230" t="b">
+        <v>0</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-32-50</t>
+        </is>
+      </c>
+      <c r="B231" t="b">
+        <v>0</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-33-14</t>
+        </is>
+      </c>
+      <c r="B232" t="b">
+        <v>0</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-33-37</t>
+        </is>
+      </c>
+      <c r="B233" t="b">
+        <v>0</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-34-01</t>
+        </is>
+      </c>
+      <c r="B234" t="b">
+        <v>0</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-34-04</t>
+        </is>
+      </c>
+      <c r="B235" t="b">
+        <v>0</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-34-27</t>
+        </is>
+      </c>
+      <c r="B236" t="b">
+        <v>0</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-34-50</t>
+        </is>
+      </c>
+      <c r="B237" t="b">
+        <v>0</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-35-13</t>
+        </is>
+      </c>
+      <c r="B238" t="b">
+        <v>0</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-35-36</t>
+        </is>
+      </c>
+      <c r="B239" t="b">
+        <v>0</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-35-40</t>
+        </is>
+      </c>
+      <c r="B240" t="b">
+        <v>0</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-36-02</t>
+        </is>
+      </c>
+      <c r="B241" t="b">
+        <v>0</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-36-26</t>
+        </is>
+      </c>
+      <c r="B242" t="b">
+        <v>0</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-36-49</t>
+        </is>
+      </c>
+      <c r="B243" t="b">
+        <v>0</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-37-11</t>
+        </is>
+      </c>
+      <c r="B244" t="b">
+        <v>0</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-37-15</t>
+        </is>
+      </c>
+      <c r="B245" t="b">
+        <v>0</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-37-38</t>
+        </is>
+      </c>
+      <c r="B246" t="b">
+        <v>0</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-38-02</t>
+        </is>
+      </c>
+      <c r="B247" t="b">
+        <v>0</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-38-26</t>
+        </is>
+      </c>
+      <c r="B248" t="b">
+        <v>0</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-38-51</t>
+        </is>
+      </c>
+      <c r="B249" t="b">
+        <v>0</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-38-55</t>
+        </is>
+      </c>
+      <c r="B250" t="b">
+        <v>0</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-39-18</t>
+        </is>
+      </c>
+      <c r="B251" t="b">
+        <v>0</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-39-23</t>
+        </is>
+      </c>
+      <c r="B252" t="b">
+        <v>0</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-39-27</t>
+        </is>
+      </c>
+      <c r="B253" t="b">
+        <v>0</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-39-31</t>
+        </is>
+      </c>
+      <c r="B254" t="b">
+        <v>0</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-39-35</t>
+        </is>
+      </c>
+      <c r="B255" t="b">
+        <v>0</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-39-39</t>
+        </is>
+      </c>
+      <c r="B256" t="b">
+        <v>0</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-39-43</t>
+        </is>
+      </c>
+      <c r="B257" t="b">
+        <v>0</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-39-48</t>
+        </is>
+      </c>
+      <c r="B258" t="b">
+        <v>0</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-39-52</t>
+        </is>
+      </c>
+      <c r="B259" t="b">
+        <v>0</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-39-56</t>
+        </is>
+      </c>
+      <c r="B260" t="b">
+        <v>0</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-40-00</t>
+        </is>
+      </c>
+      <c r="B261" t="b">
+        <v>0</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-40-04</t>
+        </is>
+      </c>
+      <c r="B262" t="b">
+        <v>0</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-40-08</t>
+        </is>
+      </c>
+      <c r="B263" t="b">
+        <v>0</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-40-13</t>
+        </is>
+      </c>
+      <c r="B264" t="b">
+        <v>0</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-40-17</t>
+        </is>
+      </c>
+      <c r="B265" t="b">
+        <v>0</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-40-21</t>
+        </is>
+      </c>
+      <c r="B266" t="b">
+        <v>0</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-40-26</t>
+        </is>
+      </c>
+      <c r="B267" t="b">
+        <v>0</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-40-30</t>
+        </is>
+      </c>
+      <c r="B268" t="b">
+        <v>0</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-40-34</t>
+        </is>
+      </c>
+      <c r="B269" t="b">
+        <v>0</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-40-38</t>
+        </is>
+      </c>
+      <c r="B270" t="b">
+        <v>0</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-40-42</t>
+        </is>
+      </c>
+      <c r="B271" t="b">
+        <v>0</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-40-46</t>
+        </is>
+      </c>
+      <c r="B272" t="b">
+        <v>0</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-40-50</t>
+        </is>
+      </c>
+      <c r="B273" t="b">
+        <v>0</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-40-55</t>
+        </is>
+      </c>
+      <c r="B274" t="b">
+        <v>0</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/14-40-59</t>
+        </is>
+      </c>
+      <c r="B275" t="b">
+        <v>0</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/project_code/DescEmb/outputs/experiments.xlsx
+++ b/project_code/DescEmb/outputs/experiments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H275"/>
+  <dimension ref="A1:H376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10279,6 +10279,3680 @@
       </c>
       <c r="H275" t="inlineStr"/>
     </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/20-59-24</t>
+        </is>
+      </c>
+      <c r="B276" t="b">
+        <v>0</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/21-28-22</t>
+        </is>
+      </c>
+      <c r="B277" t="b">
+        <v>1</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H277" t="n">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/21-46-16</t>
+        </is>
+      </c>
+      <c r="B278" t="b">
+        <v>1</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H278" t="n">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/22-01-09</t>
+        </is>
+      </c>
+      <c r="B279" t="b">
+        <v>1</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H279" t="n">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/22-24-00</t>
+        </is>
+      </c>
+      <c r="B280" t="b">
+        <v>0</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/22-24-08</t>
+        </is>
+      </c>
+      <c r="B281" t="b">
+        <v>1</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H281" t="n">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/22-42-03</t>
+        </is>
+      </c>
+      <c r="B282" t="b">
+        <v>1</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H282" t="n">
+        <v>0.091</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/22-53-26</t>
+        </is>
+      </c>
+      <c r="B283" t="b">
+        <v>1</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H283" t="n">
+        <v>0.089</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/23-04-30</t>
+        </is>
+      </c>
+      <c r="B284" t="b">
+        <v>1</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H284" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/23-36-34</t>
+        </is>
+      </c>
+      <c r="B285" t="b">
+        <v>0</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/23-36-41</t>
+        </is>
+      </c>
+      <c r="B286" t="b">
+        <v>1</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H286" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-20/23-52-23</t>
+        </is>
+      </c>
+      <c r="B287" t="b">
+        <v>1</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H287" t="n">
+        <v>0.354</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/00-07-30</t>
+        </is>
+      </c>
+      <c r="B288" t="b">
+        <v>1</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H288" t="n">
+        <v>0.349</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/00-36-08</t>
+        </is>
+      </c>
+      <c r="B289" t="b">
+        <v>1</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H289" t="n">
+        <v>0.352</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/01-06-45</t>
+        </is>
+      </c>
+      <c r="B290" t="b">
+        <v>0</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/01-06-52</t>
+        </is>
+      </c>
+      <c r="B291" t="b">
+        <v>1</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H291" t="n">
+        <v>0.353</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/01-31-01</t>
+        </is>
+      </c>
+      <c r="B292" t="b">
+        <v>1</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H292" t="n">
+        <v>0.131</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/01-52-43</t>
+        </is>
+      </c>
+      <c r="B293" t="b">
+        <v>1</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H293" t="n">
+        <v>0.132</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/02-27-43</t>
+        </is>
+      </c>
+      <c r="B294" t="b">
+        <v>1</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H294" t="n">
+        <v>0.132</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/03-00-04</t>
+        </is>
+      </c>
+      <c r="B295" t="b">
+        <v>0</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/03-00-11</t>
+        </is>
+      </c>
+      <c r="B296" t="b">
+        <v>1</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H296" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/03-18-06</t>
+        </is>
+      </c>
+      <c r="B297" t="b">
+        <v>1</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H297" t="n">
+        <v>0.638</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/03-55-33</t>
+        </is>
+      </c>
+      <c r="B298" t="b">
+        <v>1</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H298" t="n">
+        <v>0.641</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/05-30-48</t>
+        </is>
+      </c>
+      <c r="B299" t="b">
+        <v>0</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/05-32-02</t>
+        </is>
+      </c>
+      <c r="B300" t="b">
+        <v>0</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/05-32-09</t>
+        </is>
+      </c>
+      <c r="B301" t="b">
+        <v>1</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H301" t="n">
+        <v>0.644</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-30-50</t>
+        </is>
+      </c>
+      <c r="B302" t="b">
+        <v>0</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-31-30</t>
+        </is>
+      </c>
+      <c r="B303" t="b">
+        <v>0</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-32-22</t>
+        </is>
+      </c>
+      <c r="B304" t="b">
+        <v>0</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-33-26</t>
+        </is>
+      </c>
+      <c r="B305" t="b">
+        <v>0</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-33-34</t>
+        </is>
+      </c>
+      <c r="B306" t="b">
+        <v>0</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-34-18</t>
+        </is>
+      </c>
+      <c r="B307" t="b">
+        <v>0</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-34-56</t>
+        </is>
+      </c>
+      <c r="B308" t="b">
+        <v>0</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-35-53</t>
+        </is>
+      </c>
+      <c r="B309" t="b">
+        <v>0</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-36-46</t>
+        </is>
+      </c>
+      <c r="B310" t="b">
+        <v>0</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-36-54</t>
+        </is>
+      </c>
+      <c r="B311" t="b">
+        <v>0</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-37-38</t>
+        </is>
+      </c>
+      <c r="B312" t="b">
+        <v>0</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-38-19</t>
+        </is>
+      </c>
+      <c r="B313" t="b">
+        <v>0</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-39-13</t>
+        </is>
+      </c>
+      <c r="B314" t="b">
+        <v>0</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-40-04</t>
+        </is>
+      </c>
+      <c r="B315" t="b">
+        <v>0</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-40-11</t>
+        </is>
+      </c>
+      <c r="B316" t="b">
+        <v>0</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-40-43</t>
+        </is>
+      </c>
+      <c r="B317" t="b">
+        <v>0</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-41-23</t>
+        </is>
+      </c>
+      <c r="B318" t="b">
+        <v>0</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-42-05</t>
+        </is>
+      </c>
+      <c r="B319" t="b">
+        <v>0</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-42-58</t>
+        </is>
+      </c>
+      <c r="B320" t="b">
+        <v>0</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-43-04</t>
+        </is>
+      </c>
+      <c r="B321" t="b">
+        <v>0</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-43-36</t>
+        </is>
+      </c>
+      <c r="B322" t="b">
+        <v>0</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-44-20</t>
+        </is>
+      </c>
+      <c r="B323" t="b">
+        <v>0</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-45-02</t>
+        </is>
+      </c>
+      <c r="B324" t="b">
+        <v>0</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-46-02</t>
+        </is>
+      </c>
+      <c r="B325" t="b">
+        <v>0</v>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-46-10</t>
+        </is>
+      </c>
+      <c r="B326" t="b">
+        <v>0</v>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-47-07</t>
+        </is>
+      </c>
+      <c r="B327" t="b">
+        <v>0</v>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-48-08</t>
+        </is>
+      </c>
+      <c r="B328" t="b">
+        <v>0</v>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-49-03</t>
+        </is>
+      </c>
+      <c r="B329" t="b">
+        <v>0</v>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-49-58</t>
+        </is>
+      </c>
+      <c r="B330" t="b">
+        <v>0</v>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-50-05</t>
+        </is>
+      </c>
+      <c r="B331" t="b">
+        <v>0</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-51-00</t>
+        </is>
+      </c>
+      <c r="B332" t="b">
+        <v>0</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-51-53</t>
+        </is>
+      </c>
+      <c r="B333" t="b">
+        <v>0</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-52-51</t>
+        </is>
+      </c>
+      <c r="B334" t="b">
+        <v>0</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-53-46</t>
+        </is>
+      </c>
+      <c r="B335" t="b">
+        <v>0</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-53-52</t>
+        </is>
+      </c>
+      <c r="B336" t="b">
+        <v>0</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-54-41</t>
+        </is>
+      </c>
+      <c r="B337" t="b">
+        <v>0</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-55-21</t>
+        </is>
+      </c>
+      <c r="B338" t="b">
+        <v>0</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-56-14</t>
+        </is>
+      </c>
+      <c r="B339" t="b">
+        <v>0</v>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-57-15</t>
+        </is>
+      </c>
+      <c r="B340" t="b">
+        <v>0</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-57-22</t>
+        </is>
+      </c>
+      <c r="B341" t="b">
+        <v>0</v>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-58-12</t>
+        </is>
+      </c>
+      <c r="B342" t="b">
+        <v>0</v>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/06-58-59</t>
+        </is>
+      </c>
+      <c r="B343" t="b">
+        <v>0</v>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/07-00-02</t>
+        </is>
+      </c>
+      <c r="B344" t="b">
+        <v>0</v>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/07-01-10</t>
+        </is>
+      </c>
+      <c r="B345" t="b">
+        <v>0</v>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/07-01-17</t>
+        </is>
+      </c>
+      <c r="B346" t="b">
+        <v>0</v>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/07-02-07</t>
+        </is>
+      </c>
+      <c r="B347" t="b">
+        <v>0</v>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/07-03-01</t>
+        </is>
+      </c>
+      <c r="B348" t="b">
+        <v>0</v>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/07-04-06</t>
+        </is>
+      </c>
+      <c r="B349" t="b">
+        <v>0</v>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/07-05-05</t>
+        </is>
+      </c>
+      <c r="B350" t="b">
+        <v>0</v>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/07-05-12</t>
+        </is>
+      </c>
+      <c r="B351" t="b">
+        <v>0</v>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/07-06-02</t>
+        </is>
+      </c>
+      <c r="B352" t="b">
+        <v>0</v>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/07-06-40</t>
+        </is>
+      </c>
+      <c r="B353" t="b">
+        <v>0</v>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/07-07-23</t>
+        </is>
+      </c>
+      <c r="B354" t="b">
+        <v>0</v>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/07-08-22</t>
+        </is>
+      </c>
+      <c r="B355" t="b">
+        <v>0</v>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/07-08-30</t>
+        </is>
+      </c>
+      <c r="B356" t="b">
+        <v>0</v>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/07-09-07</t>
+        </is>
+      </c>
+      <c r="B357" t="b">
+        <v>0</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/07-09-41</t>
+        </is>
+      </c>
+      <c r="B358" t="b">
+        <v>0</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/07-10-22</t>
+        </is>
+      </c>
+      <c r="B359" t="b">
+        <v>0</v>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/07-11-05</t>
+        </is>
+      </c>
+      <c r="B360" t="b">
+        <v>0</v>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/07-11-12</t>
+        </is>
+      </c>
+      <c r="B361" t="b">
+        <v>0</v>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/07-11-40</t>
+        </is>
+      </c>
+      <c r="B362" t="b">
+        <v>0</v>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/07-12-18</t>
+        </is>
+      </c>
+      <c r="B363" t="b">
+        <v>0</v>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/07-13-02</t>
+        </is>
+      </c>
+      <c r="B364" t="b">
+        <v>0</v>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/07-13-47</t>
+        </is>
+      </c>
+      <c r="B365" t="b">
+        <v>0</v>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/07-13-55</t>
+        </is>
+      </c>
+      <c r="B366" t="b">
+        <v>0</v>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/07-14-30</t>
+        </is>
+      </c>
+      <c r="B367" t="b">
+        <v>0</v>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/07-15-04</t>
+        </is>
+      </c>
+      <c r="B368" t="b">
+        <v>0</v>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/07-15-45</t>
+        </is>
+      </c>
+      <c r="B369" t="b">
+        <v>0</v>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/07-16-38</t>
+        </is>
+      </c>
+      <c r="B370" t="b">
+        <v>0</v>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/07-16-47</t>
+        </is>
+      </c>
+      <c r="B371" t="b">
+        <v>0</v>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/07-17-30</t>
+        </is>
+      </c>
+      <c r="B372" t="b">
+        <v>0</v>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/07-18-02</t>
+        </is>
+      </c>
+      <c r="B373" t="b">
+        <v>0</v>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/07-18-49</t>
+        </is>
+      </c>
+      <c r="B374" t="b">
+        <v>0</v>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/07-19-40</t>
+        </is>
+      </c>
+      <c r="B375" t="b">
+        <v>0</v>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-21/07-19-48</t>
+        </is>
+      </c>
+      <c r="B376" t="b">
+        <v>0</v>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/project_code/DescEmb/outputs/experiments.xlsx
+++ b/project_code/DescEmb/outputs/experiments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H376"/>
+  <dimension ref="A1:H480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13953,6 +13953,3910 @@
       </c>
       <c r="H376" t="inlineStr"/>
     </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/01-00-52</t>
+        </is>
+      </c>
+      <c r="B377" t="b">
+        <v>0</v>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/01-03-34</t>
+        </is>
+      </c>
+      <c r="B378" t="b">
+        <v>0</v>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/02-00-04</t>
+        </is>
+      </c>
+      <c r="B379" t="b">
+        <v>0</v>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/02-01-51</t>
+        </is>
+      </c>
+      <c r="B380" t="b">
+        <v>0</v>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/02-05-34</t>
+        </is>
+      </c>
+      <c r="B381" t="b">
+        <v>1</v>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H381" t="n">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/02-11-36</t>
+        </is>
+      </c>
+      <c r="B382" t="b">
+        <v>1</v>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H382" t="n">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/02-18-05</t>
+        </is>
+      </c>
+      <c r="B383" t="b">
+        <v>1</v>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H383" t="n">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/02-21-33</t>
+        </is>
+      </c>
+      <c r="B384" t="b">
+        <v>0</v>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/02-21-36</t>
+        </is>
+      </c>
+      <c r="B385" t="b">
+        <v>1</v>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H385" t="n">
+        <v>0.047</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/02-28-40</t>
+        </is>
+      </c>
+      <c r="B386" t="b">
+        <v>1</v>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H386" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/02-34-52</t>
+        </is>
+      </c>
+      <c r="B387" t="b">
+        <v>1</v>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H387" t="n">
+        <v>0.097</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/02-43-40</t>
+        </is>
+      </c>
+      <c r="B388" t="b">
+        <v>1</v>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H388" t="n">
+        <v>0.095</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/02-50-18</t>
+        </is>
+      </c>
+      <c r="B389" t="b">
+        <v>0</v>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/02-50-20</t>
+        </is>
+      </c>
+      <c r="B390" t="b">
+        <v>1</v>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H390" t="n">
+        <v>0.091</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/02-54-53</t>
+        </is>
+      </c>
+      <c r="B391" t="b">
+        <v>1</v>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H391" t="n">
+        <v>0.354</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/02-59-41</t>
+        </is>
+      </c>
+      <c r="B392" t="b">
+        <v>1</v>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H392" t="n">
+        <v>0.349</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/03-04-24</t>
+        </is>
+      </c>
+      <c r="B393" t="b">
+        <v>1</v>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H393" t="n">
+        <v>0.355</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/03-09-33</t>
+        </is>
+      </c>
+      <c r="B394" t="b">
+        <v>0</v>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/03-09-35</t>
+        </is>
+      </c>
+      <c r="B395" t="b">
+        <v>1</v>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H395" t="n">
+        <v>0.345</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/03-13-50</t>
+        </is>
+      </c>
+      <c r="B396" t="b">
+        <v>1</v>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H396" t="n">
+        <v>0.133</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/03-20-03</t>
+        </is>
+      </c>
+      <c r="B397" t="b">
+        <v>1</v>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H397" t="n">
+        <v>0.131</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/03-28-14</t>
+        </is>
+      </c>
+      <c r="B398" t="b">
+        <v>1</v>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H398" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/03-32-16</t>
+        </is>
+      </c>
+      <c r="B399" t="b">
+        <v>0</v>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/03-32-18</t>
+        </is>
+      </c>
+      <c r="B400" t="b">
+        <v>1</v>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H400" t="n">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/03-35-40</t>
+        </is>
+      </c>
+      <c r="B401" t="b">
+        <v>1</v>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H401" t="n">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/03-45-05</t>
+        </is>
+      </c>
+      <c r="B402" t="b">
+        <v>1</v>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H402" t="n">
+        <v>0.624</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/03-53-41</t>
+        </is>
+      </c>
+      <c r="B403" t="b">
+        <v>1</v>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H403" t="n">
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/04-05-38</t>
+        </is>
+      </c>
+      <c r="B404" t="b">
+        <v>0</v>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/04-05-41</t>
+        </is>
+      </c>
+      <c r="B405" t="b">
+        <v>1</v>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H405" t="n">
+        <v>0.645</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/04-23-27</t>
+        </is>
+      </c>
+      <c r="B406" t="b">
+        <v>1</v>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H406" t="n">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/04-27-30</t>
+        </is>
+      </c>
+      <c r="B407" t="b">
+        <v>1</v>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H407" t="n">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/04-30-54</t>
+        </is>
+      </c>
+      <c r="B408" t="b">
+        <v>1</v>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H408" t="n">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/04-34-50</t>
+        </is>
+      </c>
+      <c r="B409" t="b">
+        <v>0</v>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/04-34-52</t>
+        </is>
+      </c>
+      <c r="B410" t="b">
+        <v>1</v>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H410" t="n">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/04-39-50</t>
+        </is>
+      </c>
+      <c r="B411" t="b">
+        <v>1</v>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H411" t="n">
+        <v>0.091</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/04-42-48</t>
+        </is>
+      </c>
+      <c r="B412" t="b">
+        <v>1</v>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H412" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/04-50-11</t>
+        </is>
+      </c>
+      <c r="B413" t="b">
+        <v>1</v>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H413" t="n">
+        <v>0.097</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/04-57-40</t>
+        </is>
+      </c>
+      <c r="B414" t="b">
+        <v>0</v>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/04-57-42</t>
+        </is>
+      </c>
+      <c r="B415" t="b">
+        <v>1</v>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H415" t="n">
+        <v>0.089</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/05-00-05</t>
+        </is>
+      </c>
+      <c r="B416" t="b">
+        <v>1</v>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H416" t="n">
+        <v>0.354</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/05-04-22</t>
+        </is>
+      </c>
+      <c r="B417" t="b">
+        <v>1</v>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H417" t="n">
+        <v>0.351</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/05-11-29</t>
+        </is>
+      </c>
+      <c r="B418" t="b">
+        <v>1</v>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H418" t="n">
+        <v>0.351</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/05-18-57</t>
+        </is>
+      </c>
+      <c r="B419" t="b">
+        <v>0</v>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/05-18-59</t>
+        </is>
+      </c>
+      <c r="B420" t="b">
+        <v>1</v>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H420" t="n">
+        <v>0.354</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/05-25-32</t>
+        </is>
+      </c>
+      <c r="B421" t="b">
+        <v>1</v>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H421" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/05-30-16</t>
+        </is>
+      </c>
+      <c r="B422" t="b">
+        <v>1</v>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H422" t="n">
+        <v>0.133</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/05-40-08</t>
+        </is>
+      </c>
+      <c r="B423" t="b">
+        <v>1</v>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H423" t="n">
+        <v>0.133</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/05-48-37</t>
+        </is>
+      </c>
+      <c r="B424" t="b">
+        <v>0</v>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/05-48-39</t>
+        </is>
+      </c>
+      <c r="B425" t="b">
+        <v>1</v>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H425" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/05-52-22</t>
+        </is>
+      </c>
+      <c r="B426" t="b">
+        <v>1</v>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H426" t="n">
+        <v>0.638</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/06-02-46</t>
+        </is>
+      </c>
+      <c r="B427" t="b">
+        <v>1</v>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H427" t="n">
+        <v>0.642</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/06-25-03</t>
+        </is>
+      </c>
+      <c r="B428" t="b">
+        <v>1</v>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G428" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H428" t="n">
+        <v>0.599</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/06-35-20</t>
+        </is>
+      </c>
+      <c r="B429" t="b">
+        <v>0</v>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/06-35-22</t>
+        </is>
+      </c>
+      <c r="B430" t="b">
+        <v>1</v>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H430" t="n">
+        <v>0.645</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/06-50-00</t>
+        </is>
+      </c>
+      <c r="B431" t="b">
+        <v>1</v>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H431" t="n">
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/07-04-35</t>
+        </is>
+      </c>
+      <c r="B432" t="b">
+        <v>1</v>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H432" t="n">
+        <v>0.168</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/07-25-53</t>
+        </is>
+      </c>
+      <c r="B433" t="b">
+        <v>1</v>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H433" t="n">
+        <v>0.199</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/07-45-16</t>
+        </is>
+      </c>
+      <c r="B434" t="b">
+        <v>0</v>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G434" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/07-45-19</t>
+        </is>
+      </c>
+      <c r="B435" t="b">
+        <v>1</v>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G435" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H435" t="n">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/08-01-48</t>
+        </is>
+      </c>
+      <c r="B436" t="b">
+        <v>1</v>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H436" t="n">
+        <v>0.133</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/08-10-06</t>
+        </is>
+      </c>
+      <c r="B437" t="b">
+        <v>1</v>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H437" t="n">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/08-17-09</t>
+        </is>
+      </c>
+      <c r="B438" t="b">
+        <v>1</v>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H438" t="n">
+        <v>0.141</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/08-26-13</t>
+        </is>
+      </c>
+      <c r="B439" t="b">
+        <v>0</v>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/08-26-15</t>
+        </is>
+      </c>
+      <c r="B440" t="b">
+        <v>1</v>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G440" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H440" t="n">
+        <v>0.149</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/08-32-08</t>
+        </is>
+      </c>
+      <c r="B441" t="b">
+        <v>1</v>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G441" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H441" t="n">
+        <v>0.487</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/08-37-46</t>
+        </is>
+      </c>
+      <c r="B442" t="b">
+        <v>1</v>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G442" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H442" t="n">
+        <v>0.501</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/08-44-49</t>
+        </is>
+      </c>
+      <c r="B443" t="b">
+        <v>1</v>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H443" t="n">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/08-51-39</t>
+        </is>
+      </c>
+      <c r="B444" t="b">
+        <v>0</v>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/08-51-42</t>
+        </is>
+      </c>
+      <c r="B445" t="b">
+        <v>1</v>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H445" t="n">
+        <v>0.489</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/08-58-34</t>
+        </is>
+      </c>
+      <c r="B446" t="b">
+        <v>1</v>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G446" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H446" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/09-05-05</t>
+        </is>
+      </c>
+      <c r="B447" t="b">
+        <v>1</v>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G447" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H447" t="n">
+        <v>0.166</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/09-15-19</t>
+        </is>
+      </c>
+      <c r="B448" t="b">
+        <v>1</v>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H448" t="n">
+        <v>0.162</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/09-25-25</t>
+        </is>
+      </c>
+      <c r="B449" t="b">
+        <v>0</v>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/09-25-28</t>
+        </is>
+      </c>
+      <c r="B450" t="b">
+        <v>1</v>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H450" t="n">
+        <v>0.141</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/09-32-36</t>
+        </is>
+      </c>
+      <c r="B451" t="b">
+        <v>1</v>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H451" t="n">
+        <v>0.455</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/09-57-13</t>
+        </is>
+      </c>
+      <c r="B452" t="b">
+        <v>1</v>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H452" t="n">
+        <v>0.426</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/10-18-56</t>
+        </is>
+      </c>
+      <c r="B453" t="b">
+        <v>1</v>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H453" t="n">
+        <v>0.459</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/10-43-23</t>
+        </is>
+      </c>
+      <c r="B454" t="b">
+        <v>0</v>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/10-43-26</t>
+        </is>
+      </c>
+      <c r="B455" t="b">
+        <v>1</v>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H455" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/11-19-47</t>
+        </is>
+      </c>
+      <c r="B456" t="b">
+        <v>1</v>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H456" t="n">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/11-21-26</t>
+        </is>
+      </c>
+      <c r="B457" t="b">
+        <v>1</v>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H457" t="n">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/11-24-19</t>
+        </is>
+      </c>
+      <c r="B458" t="b">
+        <v>1</v>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H458" t="n">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/11-27-42</t>
+        </is>
+      </c>
+      <c r="B459" t="b">
+        <v>0</v>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/11-27-44</t>
+        </is>
+      </c>
+      <c r="B460" t="b">
+        <v>1</v>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H460" t="n">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/11-30-09</t>
+        </is>
+      </c>
+      <c r="B461" t="b">
+        <v>1</v>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H461" t="n">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/11-38-39</t>
+        </is>
+      </c>
+      <c r="B462" t="b">
+        <v>1</v>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H462" t="n">
+        <v>0.099</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/11-47-27</t>
+        </is>
+      </c>
+      <c r="B463" t="b">
+        <v>1</v>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H463" t="n">
+        <v>0.136</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/11-56-21</t>
+        </is>
+      </c>
+      <c r="B464" t="b">
+        <v>0</v>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/11-56-23</t>
+        </is>
+      </c>
+      <c r="B465" t="b">
+        <v>1</v>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H465" t="n">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/12-03-40</t>
+        </is>
+      </c>
+      <c r="B466" t="b">
+        <v>1</v>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H466" t="n">
+        <v>0.473</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/12-07-19</t>
+        </is>
+      </c>
+      <c r="B467" t="b">
+        <v>1</v>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H467" t="n">
+        <v>0.482</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/12-13-50</t>
+        </is>
+      </c>
+      <c r="B468" t="b">
+        <v>1</v>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H468" t="n">
+        <v>0.462</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/12-22-05</t>
+        </is>
+      </c>
+      <c r="B469" t="b">
+        <v>0</v>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G469" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H469" t="inlineStr"/>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/12-22-07</t>
+        </is>
+      </c>
+      <c r="B470" t="b">
+        <v>1</v>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H470" t="n">
+        <v>0.508</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/12-29-28</t>
+        </is>
+      </c>
+      <c r="B471" t="b">
+        <v>1</v>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H471" t="n">
+        <v>0.162</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/12-35-59</t>
+        </is>
+      </c>
+      <c r="B472" t="b">
+        <v>1</v>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H472" t="n">
+        <v>0.149</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/12-41-30</t>
+        </is>
+      </c>
+      <c r="B473" t="b">
+        <v>1</v>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H473" t="n">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/12-48-17</t>
+        </is>
+      </c>
+      <c r="B474" t="b">
+        <v>0</v>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H474" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/12-48-20</t>
+        </is>
+      </c>
+      <c r="B475" t="b">
+        <v>1</v>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H475" t="n">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/12-56-08</t>
+        </is>
+      </c>
+      <c r="B476" t="b">
+        <v>1</v>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="H476" t="n">
+        <v>0.439</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/13-17-51</t>
+        </is>
+      </c>
+      <c r="B477" t="b">
+        <v>1</v>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H477" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/13-48-48</t>
+        </is>
+      </c>
+      <c r="B478" t="b">
+        <v>1</v>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H478" t="n">
+        <v>0.403</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/14-25-50</t>
+        </is>
+      </c>
+      <c r="B479" t="b">
+        <v>0</v>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr"/>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-22/14-25-52</t>
+        </is>
+      </c>
+      <c r="B480" t="b">
+        <v>1</v>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H480" t="n">
+        <v>0.427</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/project_code/DescEmb/outputs/experiments.xlsx
+++ b/project_code/DescEmb/outputs/experiments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H480"/>
+  <dimension ref="A1:H526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17857,6 +17857,1742 @@
         <v>0.427</v>
       </c>
     </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-24/06-05-04</t>
+        </is>
+      </c>
+      <c r="B481" t="b">
+        <v>0</v>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr"/>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-24/06-21-15</t>
+        </is>
+      </c>
+      <c r="B482" t="b">
+        <v>0</v>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-24/06-22-18</t>
+        </is>
+      </c>
+      <c r="B483" t="b">
+        <v>0</v>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr"/>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-24/06-24-00</t>
+        </is>
+      </c>
+      <c r="B484" t="b">
+        <v>0</v>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H484" t="inlineStr"/>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/06-38-58</t>
+        </is>
+      </c>
+      <c r="B485" t="b">
+        <v>0</v>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr"/>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/06-39-02</t>
+        </is>
+      </c>
+      <c r="B486" t="b">
+        <v>0</v>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr"/>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/06-47-57</t>
+        </is>
+      </c>
+      <c r="B487" t="b">
+        <v>1</v>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H487" t="n">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/06-50-58</t>
+        </is>
+      </c>
+      <c r="B488" t="b">
+        <v>1</v>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H488" t="n">
+        <v>0.047</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/07-03-20</t>
+        </is>
+      </c>
+      <c r="B489" t="b">
+        <v>1</v>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H489" t="n">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/07-07-29</t>
+        </is>
+      </c>
+      <c r="B490" t="b">
+        <v>1</v>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H490" t="n">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/07-10-38</t>
+        </is>
+      </c>
+      <c r="B491" t="b">
+        <v>1</v>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H491" t="n">
+        <v>0.091</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/07-17-03</t>
+        </is>
+      </c>
+      <c r="B492" t="b">
+        <v>1</v>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H492" t="n">
+        <v>0.089</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/07-21-28</t>
+        </is>
+      </c>
+      <c r="B493" t="b">
+        <v>1</v>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H493" t="n">
+        <v>0.089</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/07-25-06</t>
+        </is>
+      </c>
+      <c r="B494" t="b">
+        <v>1</v>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H494" t="n">
+        <v>0.091</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/07-28-26</t>
+        </is>
+      </c>
+      <c r="B495" t="b">
+        <v>1</v>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H495" t="n">
+        <v>0.353</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/07-36-54</t>
+        </is>
+      </c>
+      <c r="B496" t="b">
+        <v>1</v>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H496" t="n">
+        <v>0.355</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/07-49-27</t>
+        </is>
+      </c>
+      <c r="B497" t="b">
+        <v>1</v>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H497" t="n">
+        <v>0.353</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/08-01-10</t>
+        </is>
+      </c>
+      <c r="B498" t="b">
+        <v>1</v>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H498" t="n">
+        <v>0.354</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/08-07-12</t>
+        </is>
+      </c>
+      <c r="B499" t="b">
+        <v>1</v>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H499" t="n">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/08-11-37</t>
+        </is>
+      </c>
+      <c r="B500" t="b">
+        <v>1</v>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H500" t="n">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/08-17-53</t>
+        </is>
+      </c>
+      <c r="B501" t="b">
+        <v>1</v>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H501" t="n">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/08-20-47</t>
+        </is>
+      </c>
+      <c r="B502" t="b">
+        <v>1</v>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H502" t="n">
+        <v>0.131</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/08-28-04</t>
+        </is>
+      </c>
+      <c r="B503" t="b">
+        <v>1</v>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H503" t="n">
+        <v>0.646</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/08-53-09</t>
+        </is>
+      </c>
+      <c r="B504" t="b">
+        <v>1</v>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H504" t="n">
+        <v>0.648</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/09-15-58</t>
+        </is>
+      </c>
+      <c r="B505" t="b">
+        <v>1</v>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H505" t="n">
+        <v>0.642</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/09-31-16</t>
+        </is>
+      </c>
+      <c r="B506" t="b">
+        <v>1</v>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H506" t="n">
+        <v>0.647</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/09-49-06</t>
+        </is>
+      </c>
+      <c r="B507" t="b">
+        <v>1</v>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H507" t="n">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/09-54-41</t>
+        </is>
+      </c>
+      <c r="B508" t="b">
+        <v>1</v>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H508" t="n">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/09-59-47</t>
+        </is>
+      </c>
+      <c r="B509" t="b">
+        <v>1</v>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H509" t="n">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/10-03-59</t>
+        </is>
+      </c>
+      <c r="B510" t="b">
+        <v>1</v>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H510" t="n">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/10-07-24</t>
+        </is>
+      </c>
+      <c r="B511" t="b">
+        <v>1</v>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H511" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/10-16-14</t>
+        </is>
+      </c>
+      <c r="B512" t="b">
+        <v>1</v>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H512" t="n">
+        <v>0.067</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/10-18-43</t>
+        </is>
+      </c>
+      <c r="B513" t="b">
+        <v>1</v>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H513" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/10-28-48</t>
+        </is>
+      </c>
+      <c r="B514" t="b">
+        <v>1</v>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H514" t="n">
+        <v>0.103</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/10-33-22</t>
+        </is>
+      </c>
+      <c r="B515" t="b">
+        <v>1</v>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H515" t="n">
+        <v>0.478</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/10-44-20</t>
+        </is>
+      </c>
+      <c r="B516" t="b">
+        <v>1</v>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H516" t="n">
+        <v>0.509</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/10-55-34</t>
+        </is>
+      </c>
+      <c r="B517" t="b">
+        <v>1</v>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H517" t="n">
+        <v>0.505</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/11-09-39</t>
+        </is>
+      </c>
+      <c r="B518" t="b">
+        <v>1</v>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H518" t="n">
+        <v>0.503</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/11-16-30</t>
+        </is>
+      </c>
+      <c r="B519" t="b">
+        <v>1</v>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H519" t="n">
+        <v>0.148</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/11-28-11</t>
+        </is>
+      </c>
+      <c r="B520" t="b">
+        <v>1</v>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H520" t="n">
+        <v>0.144</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/11-38-41</t>
+        </is>
+      </c>
+      <c r="B521" t="b">
+        <v>1</v>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H521" t="n">
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/11-49-07</t>
+        </is>
+      </c>
+      <c r="B522" t="b">
+        <v>1</v>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G522" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H522" t="n">
+        <v>0.146</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/11-56-56</t>
+        </is>
+      </c>
+      <c r="B523" t="b">
+        <v>1</v>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H523" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/12-44-27</t>
+        </is>
+      </c>
+      <c r="B524" t="b">
+        <v>1</v>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H524" t="n">
+        <v>0.436</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/13-25-15</t>
+        </is>
+      </c>
+      <c r="B525" t="b">
+        <v>1</v>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H525" t="n">
+        <v>0.464</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-26/14-08-05</t>
+        </is>
+      </c>
+      <c r="B526" t="b">
+        <v>1</v>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H526" t="n">
+        <v>0.409</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/project_code/DescEmb/outputs/experiments.xlsx
+++ b/project_code/DescEmb/outputs/experiments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H526"/>
+  <dimension ref="A1:H564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18004,11 +18004,11 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/06-38-58</t>
+          <t>outputs/2024-04-26/06-47-57</t>
         </is>
       </c>
       <c r="B485" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C485" t="inlineStr">
         <is>
@@ -18035,16 +18035,18 @@
           <t>VA</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr"/>
+      <c r="H485" t="n">
+        <v>0.043</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/06-39-02</t>
+          <t>outputs/2024-04-26/06-50-58</t>
         </is>
       </c>
       <c r="B486" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C486" t="inlineStr">
         <is>
@@ -18071,12 +18073,14 @@
           <t>DSVA</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr"/>
+      <c r="H486" t="n">
+        <v>0.047</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/06-47-57</t>
+          <t>outputs/2024-04-26/07-03-20</t>
         </is>
       </c>
       <c r="B487" t="b">
@@ -18104,7 +18108,7 @@
       </c>
       <c r="G487" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>DSVA_DPE</t>
         </is>
       </c>
       <c r="H487" t="n">
@@ -18114,7 +18118,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/06-50-58</t>
+          <t>outputs/2024-04-26/07-07-29</t>
         </is>
       </c>
       <c r="B488" t="b">
@@ -18142,17 +18146,17 @@
       </c>
       <c r="G488" t="inlineStr">
         <is>
-          <t>DSVA</t>
+          <t>VC</t>
         </is>
       </c>
       <c r="H488" t="n">
-        <v>0.047</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/07-03-20</t>
+          <t>outputs/2024-04-26/07-10-38</t>
         </is>
       </c>
       <c r="B489" t="b">
@@ -18165,7 +18169,7 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>readmission</t>
+          <t>mortality</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
@@ -18180,17 +18184,17 @@
       </c>
       <c r="G489" t="inlineStr">
         <is>
-          <t>DSVA_DPE</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="H489" t="n">
-        <v>0.043</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/07-07-29</t>
+          <t>outputs/2024-04-26/07-17-03</t>
         </is>
       </c>
       <c r="B490" t="b">
@@ -18203,7 +18207,7 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>readmission</t>
+          <t>mortality</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
@@ -18218,17 +18222,17 @@
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>VC</t>
+          <t>DSVA</t>
         </is>
       </c>
       <c r="H490" t="n">
-        <v>0.043</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/07-10-38</t>
+          <t>outputs/2024-04-26/07-21-28</t>
         </is>
       </c>
       <c r="B491" t="b">
@@ -18256,17 +18260,17 @@
       </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>DSVA_DPE</t>
         </is>
       </c>
       <c r="H491" t="n">
-        <v>0.091</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/07-17-03</t>
+          <t>outputs/2024-04-26/07-25-06</t>
         </is>
       </c>
       <c r="B492" t="b">
@@ -18294,17 +18298,17 @@
       </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t>DSVA</t>
+          <t>VC</t>
         </is>
       </c>
       <c r="H492" t="n">
-        <v>0.089</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/07-21-28</t>
+          <t>outputs/2024-04-26/07-28-26</t>
         </is>
       </c>
       <c r="B493" t="b">
@@ -18317,7 +18321,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>mortality</t>
+          <t>los_3day</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
@@ -18332,17 +18336,17 @@
       </c>
       <c r="G493" t="inlineStr">
         <is>
-          <t>DSVA_DPE</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="H493" t="n">
-        <v>0.089</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/07-25-06</t>
+          <t>outputs/2024-04-26/07-36-54</t>
         </is>
       </c>
       <c r="B494" t="b">
@@ -18355,7 +18359,7 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>mortality</t>
+          <t>los_3day</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
@@ -18370,17 +18374,17 @@
       </c>
       <c r="G494" t="inlineStr">
         <is>
-          <t>VC</t>
+          <t>DSVA</t>
         </is>
       </c>
       <c r="H494" t="n">
-        <v>0.091</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/07-28-26</t>
+          <t>outputs/2024-04-26/07-49-27</t>
         </is>
       </c>
       <c r="B495" t="b">
@@ -18408,7 +18412,7 @@
       </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>DSVA_DPE</t>
         </is>
       </c>
       <c r="H495" t="n">
@@ -18418,7 +18422,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/07-36-54</t>
+          <t>outputs/2024-04-26/08-01-10</t>
         </is>
       </c>
       <c r="B496" t="b">
@@ -18446,17 +18450,17 @@
       </c>
       <c r="G496" t="inlineStr">
         <is>
-          <t>DSVA</t>
+          <t>VC</t>
         </is>
       </c>
       <c r="H496" t="n">
-        <v>0.355</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/07-49-27</t>
+          <t>outputs/2024-04-26/08-07-12</t>
         </is>
       </c>
       <c r="B497" t="b">
@@ -18469,7 +18473,7 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>los_3day</t>
+          <t>los_7day</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
@@ -18484,17 +18488,17 @@
       </c>
       <c r="G497" t="inlineStr">
         <is>
-          <t>DSVA_DPE</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="H497" t="n">
-        <v>0.353</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/08-01-10</t>
+          <t>outputs/2024-04-26/08-11-37</t>
         </is>
       </c>
       <c r="B498" t="b">
@@ -18507,7 +18511,7 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>los_3day</t>
+          <t>los_7day</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
@@ -18522,17 +18526,17 @@
       </c>
       <c r="G498" t="inlineStr">
         <is>
-          <t>VC</t>
+          <t>DSVA</t>
         </is>
       </c>
       <c r="H498" t="n">
-        <v>0.354</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/08-07-12</t>
+          <t>outputs/2024-04-26/08-17-53</t>
         </is>
       </c>
       <c r="B499" t="b">
@@ -18560,17 +18564,17 @@
       </c>
       <c r="G499" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>DSVA_DPE</t>
         </is>
       </c>
       <c r="H499" t="n">
-        <v>0.129</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/08-11-37</t>
+          <t>outputs/2024-04-26/08-20-47</t>
         </is>
       </c>
       <c r="B500" t="b">
@@ -18598,17 +18602,17 @@
       </c>
       <c r="G500" t="inlineStr">
         <is>
-          <t>DSVA</t>
+          <t>VC</t>
         </is>
       </c>
       <c r="H500" t="n">
-        <v>0.129</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/08-17-53</t>
+          <t>outputs/2024-04-26/08-28-04</t>
         </is>
       </c>
       <c r="B501" t="b">
@@ -18621,7 +18625,7 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>los_7day</t>
+          <t>diagnosis</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
@@ -18636,17 +18640,17 @@
       </c>
       <c r="G501" t="inlineStr">
         <is>
-          <t>DSVA_DPE</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="H501" t="n">
-        <v>0.128</v>
+        <v>0.646</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/08-20-47</t>
+          <t>outputs/2024-04-26/08-53-09</t>
         </is>
       </c>
       <c r="B502" t="b">
@@ -18659,7 +18663,7 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>los_7day</t>
+          <t>diagnosis</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
@@ -18674,17 +18678,17 @@
       </c>
       <c r="G502" t="inlineStr">
         <is>
-          <t>VC</t>
+          <t>DSVA</t>
         </is>
       </c>
       <c r="H502" t="n">
-        <v>0.131</v>
+        <v>0.648</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/08-28-04</t>
+          <t>outputs/2024-04-26/09-15-58</t>
         </is>
       </c>
       <c r="B503" t="b">
@@ -18712,17 +18716,17 @@
       </c>
       <c r="G503" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>DSVA_DPE</t>
         </is>
       </c>
       <c r="H503" t="n">
-        <v>0.646</v>
+        <v>0.642</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/08-53-09</t>
+          <t>outputs/2024-04-26/09-31-16</t>
         </is>
       </c>
       <c r="B504" t="b">
@@ -18750,17 +18754,17 @@
       </c>
       <c r="G504" t="inlineStr">
         <is>
-          <t>DSVA</t>
+          <t>VC</t>
         </is>
       </c>
       <c r="H504" t="n">
-        <v>0.648</v>
+        <v>0.647</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/09-15-58</t>
+          <t>outputs/2024-04-26/09-49-06</t>
         </is>
       </c>
       <c r="B505" t="b">
@@ -18768,12 +18772,12 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>mimiciii</t>
+          <t>eicu</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>diagnosis</t>
+          <t>readmission</t>
         </is>
       </c>
       <c r="E505" t="inlineStr">
@@ -18788,17 +18792,17 @@
       </c>
       <c r="G505" t="inlineStr">
         <is>
-          <t>DSVA_DPE</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="H505" t="n">
-        <v>0.642</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/09-31-16</t>
+          <t>outputs/2024-04-26/09-54-41</t>
         </is>
       </c>
       <c r="B506" t="b">
@@ -18806,12 +18810,12 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>mimiciii</t>
+          <t>eicu</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>diagnosis</t>
+          <t>readmission</t>
         </is>
       </c>
       <c r="E506" t="inlineStr">
@@ -18826,17 +18830,17 @@
       </c>
       <c r="G506" t="inlineStr">
         <is>
-          <t>VC</t>
+          <t>DSVA</t>
         </is>
       </c>
       <c r="H506" t="n">
-        <v>0.647</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/09-49-06</t>
+          <t>outputs/2024-04-26/09-59-47</t>
         </is>
       </c>
       <c r="B507" t="b">
@@ -18864,17 +18868,17 @@
       </c>
       <c r="G507" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>DSVA_DPE</t>
         </is>
       </c>
       <c r="H507" t="n">
-        <v>0.107</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/09-54-41</t>
+          <t>outputs/2024-04-26/10-03-59</t>
         </is>
       </c>
       <c r="B508" t="b">
@@ -18902,17 +18906,17 @@
       </c>
       <c r="G508" t="inlineStr">
         <is>
-          <t>DSVA</t>
+          <t>VC</t>
         </is>
       </c>
       <c r="H508" t="n">
-        <v>0.108</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/09-59-47</t>
+          <t>outputs/2024-04-26/10-07-24</t>
         </is>
       </c>
       <c r="B509" t="b">
@@ -18925,7 +18929,7 @@
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>readmission</t>
+          <t>mortality</t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
@@ -18940,17 +18944,17 @@
       </c>
       <c r="G509" t="inlineStr">
         <is>
-          <t>DSVA_DPE</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="H509" t="n">
-        <v>0.109</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/10-03-59</t>
+          <t>outputs/2024-04-26/10-16-14</t>
         </is>
       </c>
       <c r="B510" t="b">
@@ -18963,7 +18967,7 @@
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>readmission</t>
+          <t>mortality</t>
         </is>
       </c>
       <c r="E510" t="inlineStr">
@@ -18978,17 +18982,17 @@
       </c>
       <c r="G510" t="inlineStr">
         <is>
-          <t>VC</t>
+          <t>DSVA</t>
         </is>
       </c>
       <c r="H510" t="n">
-        <v>0.106</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/10-07-24</t>
+          <t>outputs/2024-04-26/10-18-43</t>
         </is>
       </c>
       <c r="B511" t="b">
@@ -19016,17 +19020,17 @@
       </c>
       <c r="G511" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>DSVA_DPE</t>
         </is>
       </c>
       <c r="H511" t="n">
-        <v>0.098</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/10-16-14</t>
+          <t>outputs/2024-04-26/10-28-48</t>
         </is>
       </c>
       <c r="B512" t="b">
@@ -19054,17 +19058,17 @@
       </c>
       <c r="G512" t="inlineStr">
         <is>
-          <t>DSVA</t>
+          <t>VC</t>
         </is>
       </c>
       <c r="H512" t="n">
-        <v>0.067</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/10-18-43</t>
+          <t>outputs/2024-04-26/10-33-22</t>
         </is>
       </c>
       <c r="B513" t="b">
@@ -19077,7 +19081,7 @@
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>mortality</t>
+          <t>los_3day</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
@@ -19092,17 +19096,17 @@
       </c>
       <c r="G513" t="inlineStr">
         <is>
-          <t>DSVA_DPE</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="H513" t="n">
-        <v>0.12</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/10-28-48</t>
+          <t>outputs/2024-04-26/10-44-20</t>
         </is>
       </c>
       <c r="B514" t="b">
@@ -19115,7 +19119,7 @@
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>mortality</t>
+          <t>los_3day</t>
         </is>
       </c>
       <c r="E514" t="inlineStr">
@@ -19130,17 +19134,17 @@
       </c>
       <c r="G514" t="inlineStr">
         <is>
-          <t>VC</t>
+          <t>DSVA</t>
         </is>
       </c>
       <c r="H514" t="n">
-        <v>0.103</v>
+        <v>0.509</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/10-33-22</t>
+          <t>outputs/2024-04-26/10-55-34</t>
         </is>
       </c>
       <c r="B515" t="b">
@@ -19168,17 +19172,17 @@
       </c>
       <c r="G515" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>DSVA_DPE</t>
         </is>
       </c>
       <c r="H515" t="n">
-        <v>0.478</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/10-44-20</t>
+          <t>outputs/2024-04-26/11-09-39</t>
         </is>
       </c>
       <c r="B516" t="b">
@@ -19206,17 +19210,17 @@
       </c>
       <c r="G516" t="inlineStr">
         <is>
-          <t>DSVA</t>
+          <t>VC</t>
         </is>
       </c>
       <c r="H516" t="n">
-        <v>0.509</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/10-55-34</t>
+          <t>outputs/2024-04-26/11-16-30</t>
         </is>
       </c>
       <c r="B517" t="b">
@@ -19229,7 +19233,7 @@
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>los_3day</t>
+          <t>los_7day</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
@@ -19244,17 +19248,17 @@
       </c>
       <c r="G517" t="inlineStr">
         <is>
-          <t>DSVA_DPE</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="H517" t="n">
-        <v>0.505</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/11-09-39</t>
+          <t>outputs/2024-04-26/11-28-11</t>
         </is>
       </c>
       <c r="B518" t="b">
@@ -19267,7 +19271,7 @@
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>los_3day</t>
+          <t>los_7day</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
@@ -19282,17 +19286,17 @@
       </c>
       <c r="G518" t="inlineStr">
         <is>
-          <t>VC</t>
+          <t>DSVA</t>
         </is>
       </c>
       <c r="H518" t="n">
-        <v>0.503</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/11-16-30</t>
+          <t>outputs/2024-04-26/11-38-41</t>
         </is>
       </c>
       <c r="B519" t="b">
@@ -19320,17 +19324,17 @@
       </c>
       <c r="G519" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>DSVA_DPE</t>
         </is>
       </c>
       <c r="H519" t="n">
-        <v>0.148</v>
+        <v>0.157</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/11-28-11</t>
+          <t>outputs/2024-04-26/11-49-07</t>
         </is>
       </c>
       <c r="B520" t="b">
@@ -19358,17 +19362,17 @@
       </c>
       <c r="G520" t="inlineStr">
         <is>
-          <t>DSVA</t>
+          <t>VC</t>
         </is>
       </c>
       <c r="H520" t="n">
-        <v>0.144</v>
+        <v>0.146</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/11-38-41</t>
+          <t>outputs/2024-04-26/11-56-56</t>
         </is>
       </c>
       <c r="B521" t="b">
@@ -19381,7 +19385,7 @@
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>los_7day</t>
+          <t>diagnosis</t>
         </is>
       </c>
       <c r="E521" t="inlineStr">
@@ -19396,17 +19400,17 @@
       </c>
       <c r="G521" t="inlineStr">
         <is>
-          <t>DSVA_DPE</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="H521" t="n">
-        <v>0.157</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/11-49-07</t>
+          <t>outputs/2024-04-26/12-44-27</t>
         </is>
       </c>
       <c r="B522" t="b">
@@ -19419,7 +19423,7 @@
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>los_7day</t>
+          <t>diagnosis</t>
         </is>
       </c>
       <c r="E522" t="inlineStr">
@@ -19434,17 +19438,17 @@
       </c>
       <c r="G522" t="inlineStr">
         <is>
-          <t>VC</t>
+          <t>DSVA</t>
         </is>
       </c>
       <c r="H522" t="n">
-        <v>0.146</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/11-56-56</t>
+          <t>outputs/2024-04-26/13-25-15</t>
         </is>
       </c>
       <c r="B523" t="b">
@@ -19472,17 +19476,17 @@
       </c>
       <c r="G523" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>DSVA_DPE</t>
         </is>
       </c>
       <c r="H523" t="n">
-        <v>0.45</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/12-44-27</t>
+          <t>outputs/2024-04-26/14-08-05</t>
         </is>
       </c>
       <c r="B524" t="b">
@@ -19510,17 +19514,17 @@
       </c>
       <c r="G524" t="inlineStr">
         <is>
-          <t>DSVA</t>
+          <t>VC</t>
         </is>
       </c>
       <c r="H524" t="n">
-        <v>0.436</v>
+        <v>0.409</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/13-25-15</t>
+          <t>outputs/2024-04-27/08-29-14</t>
         </is>
       </c>
       <c r="B525" t="b">
@@ -19528,12 +19532,12 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>eicu</t>
+          <t>mimiciii</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
         <is>
-          <t>diagnosis</t>
+          <t>readmission</t>
         </is>
       </c>
       <c r="E525" t="inlineStr">
@@ -19548,17 +19552,17 @@
       </c>
       <c r="G525" t="inlineStr">
         <is>
-          <t>DSVA_DPE</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="H525" t="n">
-        <v>0.464</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>outputs/2024-04-26/14-08-05</t>
+          <t>outputs/2024-04-27/08-32-56</t>
         </is>
       </c>
       <c r="B526" t="b">
@@ -19566,31 +19570,1475 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H526" t="n">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-27/08-38-40</t>
+        </is>
+      </c>
+      <c r="B527" t="b">
+        <v>1</v>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H527" t="n">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-27/08-42-40</t>
+        </is>
+      </c>
+      <c r="B528" t="b">
+        <v>1</v>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H528" t="n">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-27/08-46-22</t>
+        </is>
+      </c>
+      <c r="B529" t="b">
+        <v>1</v>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H529" t="n">
+        <v>0.091</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-27/08-53-08</t>
+        </is>
+      </c>
+      <c r="B530" t="b">
+        <v>1</v>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H530" t="n">
+        <v>0.092</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-27/09-04-10</t>
+        </is>
+      </c>
+      <c r="B531" t="b">
+        <v>1</v>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H531" t="n">
+        <v>0.089</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-27/09-09-39</t>
+        </is>
+      </c>
+      <c r="B532" t="b">
+        <v>1</v>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H532" t="n">
+        <v>0.092</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-27/09-14-48</t>
+        </is>
+      </c>
+      <c r="B533" t="b">
+        <v>1</v>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H533" t="n">
+        <v>0.346</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-27/09-18-52</t>
+        </is>
+      </c>
+      <c r="B534" t="b">
+        <v>1</v>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H534" t="n">
+        <v>0.346</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-27/09-21-48</t>
+        </is>
+      </c>
+      <c r="B535" t="b">
+        <v>1</v>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H535" t="n">
+        <v>0.345</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-27/09-26-10</t>
+        </is>
+      </c>
+      <c r="B536" t="b">
+        <v>1</v>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H536" t="n">
+        <v>0.346</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-27/09-30-43</t>
+        </is>
+      </c>
+      <c r="B537" t="b">
+        <v>1</v>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H537" t="n">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-27/09-34-27</t>
+        </is>
+      </c>
+      <c r="B538" t="b">
+        <v>1</v>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H538" t="n">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-27/09-39-14</t>
+        </is>
+      </c>
+      <c r="B539" t="b">
+        <v>1</v>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H539" t="n">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-27/09-43-58</t>
+        </is>
+      </c>
+      <c r="B540" t="b">
+        <v>1</v>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H540" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-27/09-47-56</t>
+        </is>
+      </c>
+      <c r="B541" t="b">
+        <v>1</v>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H541" t="n">
+        <v>0.646</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-27/10-07-52</t>
+        </is>
+      </c>
+      <c r="B542" t="b">
+        <v>1</v>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G542" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H542" t="n">
+        <v>0.649</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-27/10-29-36</t>
+        </is>
+      </c>
+      <c r="B543" t="b">
+        <v>1</v>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H543" t="n">
+        <v>0.641</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-27/10-46-23</t>
+        </is>
+      </c>
+      <c r="B544" t="b">
+        <v>1</v>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H544" t="n">
+        <v>0.648</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-27/11-06-51</t>
+        </is>
+      </c>
+      <c r="B545" t="b">
+        <v>1</v>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
           <t>eicu</t>
         </is>
       </c>
-      <c r="D526" t="inlineStr">
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H545" t="n">
+        <v>0.119</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-27/11-16-33</t>
+        </is>
+      </c>
+      <c r="B546" t="b">
+        <v>1</v>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H546" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-27/11-28-00</t>
+        </is>
+      </c>
+      <c r="B547" t="b">
+        <v>1</v>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H547" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-27/11-38-08</t>
+        </is>
+      </c>
+      <c r="B548" t="b">
+        <v>1</v>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H548" t="n">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-27/11-42-43</t>
+        </is>
+      </c>
+      <c r="B549" t="b">
+        <v>1</v>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G549" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H549" t="n">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-27/11-52-58</t>
+        </is>
+      </c>
+      <c r="B550" t="b">
+        <v>1</v>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G550" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H550" t="n">
+        <v>0.142</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-27/12-04-11</t>
+        </is>
+      </c>
+      <c r="B551" t="b">
+        <v>1</v>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G551" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H551" t="n">
+        <v>0.148</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-27/12-16-05</t>
+        </is>
+      </c>
+      <c r="B552" t="b">
+        <v>1</v>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H552" t="n">
+        <v>0.167</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-27/12-27-31</t>
+        </is>
+      </c>
+      <c r="B553" t="b">
+        <v>1</v>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G553" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H553" t="n">
+        <v>0.486</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-27/12-36-42</t>
+        </is>
+      </c>
+      <c r="B554" t="b">
+        <v>1</v>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G554" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H554" t="n">
+        <v>0.488</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-27/12-43-56</t>
+        </is>
+      </c>
+      <c r="B555" t="b">
+        <v>1</v>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G555" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H555" t="n">
+        <v>0.492</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-27/12-51-07</t>
+        </is>
+      </c>
+      <c r="B556" t="b">
+        <v>1</v>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G556" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H556" t="n">
+        <v>0.505</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-27/12-58-01</t>
+        </is>
+      </c>
+      <c r="B557" t="b">
+        <v>1</v>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G557" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H557" t="n">
+        <v>0.149</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-27/13-08-58</t>
+        </is>
+      </c>
+      <c r="B558" t="b">
+        <v>1</v>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G558" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H558" t="n">
+        <v>0.181</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-27/13-19-28</t>
+        </is>
+      </c>
+      <c r="B559" t="b">
+        <v>1</v>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H559" t="n">
+        <v>0.164</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-27/13-29-54</t>
+        </is>
+      </c>
+      <c r="B560" t="b">
+        <v>1</v>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G560" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="H560" t="n">
+        <v>0.141</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-27/13-38-45</t>
+        </is>
+      </c>
+      <c r="B561" t="b">
+        <v>1</v>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
         <is>
           <t>diagnosis</t>
         </is>
       </c>
-      <c r="E526" t="inlineStr">
-        <is>
-          <t>descemb_bert</t>
-        </is>
-      </c>
-      <c r="F526" t="inlineStr">
-        <is>
-          <t>ehr_model</t>
-        </is>
-      </c>
-      <c r="G526" t="inlineStr">
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G561" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="H561" t="n">
+        <v>0.447</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-27/14-21-49</t>
+        </is>
+      </c>
+      <c r="B562" t="b">
+        <v>1</v>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G562" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="H562" t="n">
+        <v>0.476</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-27/14-57-32</t>
+        </is>
+      </c>
+      <c r="B563" t="b">
+        <v>1</v>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G563" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="H563" t="n">
+        <v>0.479</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-27/15-38-09</t>
+        </is>
+      </c>
+      <c r="B564" t="b">
+        <v>1</v>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="G564" t="inlineStr">
         <is>
           <t>VC</t>
         </is>
       </c>
-      <c r="H526" t="n">
-        <v>0.409</v>
+      <c r="H564" t="n">
+        <v>0.446</v>
       </c>
     </row>
   </sheetData>

--- a/project_code/DescEmb/outputs/experiments.xlsx
+++ b/project_code/DescEmb/outputs/experiments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H564"/>
+  <dimension ref="A1:K564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,6 +471,21 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>epoch</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>auroc</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>auprc</t>
         </is>
       </c>
@@ -506,6 +521,9 @@
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -538,6 +556,9 @@
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -570,6 +591,9 @@
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -602,6 +626,9 @@
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -634,6 +661,9 @@
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -666,6 +696,9 @@
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -698,6 +731,9 @@
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -730,6 +766,9 @@
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -762,6 +801,9 @@
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -794,6 +836,9 @@
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -826,6 +871,9 @@
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -858,6 +906,9 @@
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -890,6 +941,9 @@
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -922,6 +976,9 @@
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -954,6 +1011,9 @@
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -986,6 +1046,9 @@
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1018,6 +1081,9 @@
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1050,6 +1116,9 @@
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1082,6 +1151,9 @@
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1114,6 +1186,9 @@
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1146,6 +1221,9 @@
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1182,6 +1260,9 @@
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1218,6 +1299,9 @@
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1254,6 +1338,9 @@
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1290,6 +1377,9 @@
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1326,6 +1416,9 @@
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1362,6 +1455,9 @@
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1398,6 +1494,9 @@
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1434,6 +1533,9 @@
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1470,6 +1572,9 @@
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1506,6 +1611,9 @@
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1542,6 +1650,9 @@
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1578,6 +1689,9 @@
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1614,6 +1728,9 @@
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1650,6 +1767,9 @@
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1686,6 +1806,9 @@
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1722,6 +1845,9 @@
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1758,6 +1884,9 @@
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1794,6 +1923,9 @@
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1830,6 +1962,15 @@
         </is>
       </c>
       <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.045</v>
       </c>
     </row>
@@ -1868,6 +2009,9 @@
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1904,6 +2048,15 @@
         </is>
       </c>
       <c r="H43" t="n">
+        <v>13</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1.361</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.043</v>
       </c>
     </row>
@@ -1942,6 +2095,15 @@
         </is>
       </c>
       <c r="H44" t="n">
+        <v>14</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1.353</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.043</v>
       </c>
     </row>
@@ -1980,6 +2142,9 @@
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2016,6 +2181,9 @@
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2052,6 +2220,15 @@
         </is>
       </c>
       <c r="H47" t="n">
+        <v>10</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1.363</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.043</v>
       </c>
     </row>
@@ -2090,6 +2267,15 @@
         </is>
       </c>
       <c r="H48" t="n">
+        <v>13</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1.359</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.503</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.089</v>
       </c>
     </row>
@@ -2128,6 +2314,15 @@
         </is>
       </c>
       <c r="H49" t="n">
+        <v>9</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1.385</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.089</v>
       </c>
     </row>
@@ -2166,6 +2361,15 @@
         </is>
       </c>
       <c r="H50" t="n">
+        <v>8</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1.393</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="K50" t="n">
         <v>0.089</v>
       </c>
     </row>
@@ -2204,6 +2408,15 @@
         </is>
       </c>
       <c r="H51" t="n">
+        <v>29</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1.311</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -2242,6 +2455,15 @@
         </is>
       </c>
       <c r="H52" t="n">
+        <v>14</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1.332</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="K52" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -2280,6 +2502,15 @@
         </is>
       </c>
       <c r="H53" t="n">
+        <v>24</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="K53" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -2318,6 +2549,15 @@
         </is>
       </c>
       <c r="H54" t="n">
+        <v>28</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="K54" t="n">
         <v>0.357</v>
       </c>
     </row>
@@ -2356,6 +2596,15 @@
         </is>
       </c>
       <c r="H55" t="n">
+        <v>8</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1.494</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="K55" t="n">
         <v>0.345</v>
       </c>
     </row>
@@ -2394,6 +2643,9 @@
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2430,6 +2682,15 @@
         </is>
       </c>
       <c r="H57" t="n">
+        <v>24</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.458</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="K57" t="n">
         <v>0.351</v>
       </c>
     </row>
@@ -2468,6 +2729,15 @@
         </is>
       </c>
       <c r="H58" t="n">
+        <v>9</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1.437</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="K58" t="n">
         <v>0.128</v>
       </c>
     </row>
@@ -2506,6 +2776,15 @@
         </is>
       </c>
       <c r="H59" t="n">
+        <v>11</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.422</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="K59" t="n">
         <v>0.129</v>
       </c>
     </row>
@@ -2544,6 +2823,15 @@
         </is>
       </c>
       <c r="H60" t="n">
+        <v>13</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1.409</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="K60" t="n">
         <v>0.129</v>
       </c>
     </row>
@@ -2582,6 +2870,9 @@
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2618,6 +2909,15 @@
         </is>
       </c>
       <c r="H62" t="n">
+        <v>10</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1.411</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="K62" t="n">
         <v>0.129</v>
       </c>
     </row>
@@ -2656,6 +2956,15 @@
         </is>
       </c>
       <c r="H63" t="n">
+        <v>45</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1.144</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.738</v>
+      </c>
+      <c r="K63" t="n">
         <v>0.638</v>
       </c>
     </row>
@@ -2694,6 +3003,15 @@
         </is>
       </c>
       <c r="H64" t="n">
+        <v>78</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1.096</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="K64" t="n">
         <v>0.646</v>
       </c>
     </row>
@@ -2732,6 +3050,15 @@
         </is>
       </c>
       <c r="H65" t="n">
+        <v>73</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1.102</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="K65" t="n">
         <v>0.646</v>
       </c>
     </row>
@@ -2770,6 +3097,15 @@
         </is>
       </c>
       <c r="H66" t="n">
+        <v>47</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1.137</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="K66" t="n">
         <v>0.646</v>
       </c>
     </row>
@@ -2808,6 +3144,15 @@
         </is>
       </c>
       <c r="H67" t="n">
+        <v>82</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1.087</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.773</v>
+      </c>
+      <c r="K67" t="n">
         <v>0.648</v>
       </c>
     </row>
@@ -2846,6 +3191,9 @@
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2882,6 +3230,9 @@
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2918,6 +3269,9 @@
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2954,6 +3308,9 @@
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2990,6 +3347,9 @@
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3026,6 +3386,9 @@
         </is>
       </c>
       <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3062,6 +3425,9 @@
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3098,6 +3464,9 @@
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3134,6 +3503,9 @@
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3170,6 +3542,9 @@
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3206,6 +3581,9 @@
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3242,6 +3620,9 @@
         </is>
       </c>
       <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3278,6 +3659,9 @@
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3314,6 +3698,9 @@
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3350,6 +3737,9 @@
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3386,6 +3776,9 @@
         </is>
       </c>
       <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3422,6 +3815,9 @@
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3458,6 +3854,9 @@
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3494,6 +3893,9 @@
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3530,6 +3932,9 @@
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3566,6 +3971,9 @@
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3602,6 +4010,9 @@
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3638,6 +4049,9 @@
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3674,6 +4088,9 @@
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3710,6 +4127,9 @@
         </is>
       </c>
       <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3746,6 +4166,9 @@
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3782,6 +4205,9 @@
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3818,6 +4244,9 @@
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3854,6 +4283,9 @@
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3890,6 +4322,9 @@
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3926,6 +4361,9 @@
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3962,6 +4400,9 @@
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3998,6 +4439,9 @@
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4034,6 +4478,9 @@
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4070,6 +4517,9 @@
         </is>
       </c>
       <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4106,6 +4556,9 @@
         </is>
       </c>
       <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4142,6 +4595,9 @@
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4178,6 +4634,9 @@
         </is>
       </c>
       <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4214,6 +4673,9 @@
         </is>
       </c>
       <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4250,6 +4712,9 @@
         </is>
       </c>
       <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4286,6 +4751,9 @@
         </is>
       </c>
       <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4322,6 +4790,9 @@
         </is>
       </c>
       <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4358,6 +4829,9 @@
         </is>
       </c>
       <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4394,6 +4868,9 @@
         </is>
       </c>
       <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4430,6 +4907,9 @@
         </is>
       </c>
       <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4466,6 +4946,15 @@
         </is>
       </c>
       <c r="H113" t="n">
+        <v>23</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1.311</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.047</v>
       </c>
     </row>
@@ -4504,6 +4993,15 @@
         </is>
       </c>
       <c r="H114" t="n">
+        <v>19</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1.287</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.043</v>
       </c>
     </row>
@@ -4542,6 +5040,15 @@
         </is>
       </c>
       <c r="H115" t="n">
+        <v>18</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1.295</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.043</v>
       </c>
     </row>
@@ -4580,6 +5087,9 @@
         </is>
       </c>
       <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4616,6 +5126,15 @@
         </is>
       </c>
       <c r="H117" t="n">
+        <v>22</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1.321</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.094</v>
       </c>
     </row>
@@ -4654,6 +5173,15 @@
         </is>
       </c>
       <c r="H118" t="n">
+        <v>22</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1.296</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="K118" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -4692,6 +5220,15 @@
         </is>
       </c>
       <c r="H119" t="n">
+        <v>6</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1.383</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="K119" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -4730,6 +5267,9 @@
         </is>
       </c>
       <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4766,6 +5306,9 @@
         </is>
       </c>
       <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4802,6 +5345,15 @@
         </is>
       </c>
       <c r="H122" t="n">
+        <v>17</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1.496</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.349</v>
       </c>
     </row>
@@ -4840,6 +5392,15 @@
         </is>
       </c>
       <c r="H123" t="n">
+        <v>21</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1.534</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -4878,6 +5439,9 @@
         </is>
       </c>
       <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -4914,6 +5478,15 @@
         </is>
       </c>
       <c r="H125" t="n">
+        <v>26</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1.357</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.133</v>
       </c>
     </row>
@@ -4952,6 +5525,15 @@
         </is>
       </c>
       <c r="H126" t="n">
+        <v>6</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1.433</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.129</v>
       </c>
     </row>
@@ -4990,6 +5572,15 @@
         </is>
       </c>
       <c r="H127" t="n">
+        <v>6</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1.434</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.129</v>
       </c>
     </row>
@@ -5028,6 +5619,9 @@
         </is>
       </c>
       <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5064,6 +5658,15 @@
         </is>
       </c>
       <c r="H129" t="n">
+        <v>72</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1.104</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.642</v>
       </c>
     </row>
@@ -5102,6 +5705,15 @@
         </is>
       </c>
       <c r="H130" t="n">
+        <v>56</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.758</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.636</v>
       </c>
     </row>
@@ -5140,6 +5752,15 @@
         </is>
       </c>
       <c r="H131" t="n">
+        <v>62</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.643</v>
       </c>
     </row>
@@ -5178,6 +5799,9 @@
         </is>
       </c>
       <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -5214,6 +5838,15 @@
         </is>
       </c>
       <c r="H133" t="n">
+        <v>14</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1.353</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.503</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.089</v>
       </c>
     </row>
@@ -5252,6 +5885,15 @@
         </is>
       </c>
       <c r="H134" t="n">
+        <v>20</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1.334</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.094</v>
       </c>
     </row>
@@ -5290,6 +5932,15 @@
         </is>
       </c>
       <c r="H135" t="n">
+        <v>9</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1.449</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.089</v>
       </c>
     </row>
@@ -5328,6 +5979,15 @@
         </is>
       </c>
       <c r="H136" t="n">
+        <v>12</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1.345</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.089</v>
       </c>
     </row>
@@ -5366,6 +6026,15 @@
         </is>
       </c>
       <c r="H137" t="n">
+        <v>7</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.089</v>
       </c>
     </row>
@@ -5404,6 +6073,15 @@
         </is>
       </c>
       <c r="H138" t="n">
+        <v>9</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1.385</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.089</v>
       </c>
     </row>
@@ -5438,6 +6116,9 @@
         </is>
       </c>
       <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -5470,6 +6151,9 @@
         </is>
       </c>
       <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -5502,6 +6186,15 @@
         </is>
       </c>
       <c r="H141" t="n">
+        <v>3</v>
+      </c>
+      <c r="I141" t="n">
+        <v>9.449</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5536,6 +6229,9 @@
         </is>
       </c>
       <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -5568,6 +6264,9 @@
         </is>
       </c>
       <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -5600,6 +6299,15 @@
         </is>
       </c>
       <c r="H144" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.829</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5634,6 +6342,15 @@
         </is>
       </c>
       <c r="H145" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5668,6 +6385,9 @@
         </is>
       </c>
       <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -5700,6 +6420,9 @@
         </is>
       </c>
       <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -5732,6 +6455,9 @@
         </is>
       </c>
       <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -5764,6 +6490,9 @@
         </is>
       </c>
       <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -5796,6 +6525,9 @@
         </is>
       </c>
       <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -5828,6 +6560,9 @@
         </is>
       </c>
       <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -5860,6 +6595,9 @@
         </is>
       </c>
       <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -5892,6 +6630,9 @@
         </is>
       </c>
       <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -5924,6 +6665,9 @@
         </is>
       </c>
       <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -5956,6 +6700,9 @@
         </is>
       </c>
       <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -5988,6 +6735,9 @@
         </is>
       </c>
       <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -6020,6 +6770,9 @@
         </is>
       </c>
       <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -6052,6 +6805,9 @@
         </is>
       </c>
       <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -6084,6 +6840,9 @@
         </is>
       </c>
       <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -6116,6 +6875,9 @@
         </is>
       </c>
       <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -6148,6 +6910,9 @@
         </is>
       </c>
       <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -6180,6 +6945,9 @@
         </is>
       </c>
       <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -6212,6 +6980,9 @@
         </is>
       </c>
       <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -6248,6 +7019,15 @@
         </is>
       </c>
       <c r="H164" t="n">
+        <v>4</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1.436</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.043</v>
       </c>
     </row>
@@ -6286,6 +7066,9 @@
         </is>
       </c>
       <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -6322,6 +7105,9 @@
         </is>
       </c>
       <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -6358,6 +7144,9 @@
         </is>
       </c>
       <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -6394,6 +7183,9 @@
         </is>
       </c>
       <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -6430,6 +7222,9 @@
         </is>
       </c>
       <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -6466,6 +7261,9 @@
         </is>
       </c>
       <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -6502,6 +7300,9 @@
         </is>
       </c>
       <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -6538,6 +7339,9 @@
         </is>
       </c>
       <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -6574,6 +7378,9 @@
         </is>
       </c>
       <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -6610,6 +7417,9 @@
         </is>
       </c>
       <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -6646,6 +7456,9 @@
         </is>
       </c>
       <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -6682,6 +7495,15 @@
         </is>
       </c>
       <c r="H176" t="n">
+        <v>21</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1.298</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.043</v>
       </c>
     </row>
@@ -6720,6 +7542,9 @@
         </is>
       </c>
       <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -6756,6 +7581,15 @@
         </is>
       </c>
       <c r="H178" t="n">
+        <v>16</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1.336</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.043</v>
       </c>
     </row>
@@ -6794,6 +7628,9 @@
         </is>
       </c>
       <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -6830,6 +7667,15 @@
         </is>
       </c>
       <c r="H180" t="n">
+        <v>16</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1.315</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.043</v>
       </c>
     </row>
@@ -6868,6 +7714,15 @@
         </is>
       </c>
       <c r="H181" t="n">
+        <v>13</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1.359</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.091</v>
       </c>
     </row>
@@ -6906,6 +7761,15 @@
         </is>
       </c>
       <c r="H182" t="n">
+        <v>8</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1.392</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.089</v>
       </c>
     </row>
@@ -6944,6 +7808,9 @@
         </is>
       </c>
       <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -6980,6 +7847,9 @@
         </is>
       </c>
       <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -7016,6 +7886,15 @@
         </is>
       </c>
       <c r="H185" t="n">
+        <v>14</v>
+      </c>
+      <c r="I185" t="n">
+        <v>1.333</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -7054,6 +7933,15 @@
         </is>
       </c>
       <c r="H186" t="n">
+        <v>18</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1.471</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.354</v>
       </c>
     </row>
@@ -7092,6 +7980,9 @@
         </is>
       </c>
       <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -7128,6 +8019,15 @@
         </is>
       </c>
       <c r="H188" t="n">
+        <v>22</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1.492</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.352</v>
       </c>
     </row>
@@ -7166,6 +8066,9 @@
         </is>
       </c>
       <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -7202,6 +8105,15 @@
         </is>
       </c>
       <c r="H190" t="n">
+        <v>22</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.353</v>
       </c>
     </row>
@@ -7240,6 +8152,15 @@
         </is>
       </c>
       <c r="H191" t="n">
+        <v>26</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1.333</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.131</v>
       </c>
     </row>
@@ -7278,6 +8199,15 @@
         </is>
       </c>
       <c r="H192" t="n">
+        <v>27</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1.357</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.132</v>
       </c>
     </row>
@@ -7316,6 +8246,15 @@
         </is>
       </c>
       <c r="H193" t="n">
+        <v>23</v>
+      </c>
+      <c r="I193" t="n">
+        <v>1.357</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.132</v>
       </c>
     </row>
@@ -7354,6 +8293,9 @@
         </is>
       </c>
       <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -7390,6 +8332,15 @@
         </is>
       </c>
       <c r="H195" t="n">
+        <v>16</v>
+      </c>
+      <c r="I195" t="n">
+        <v>1.375</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -7428,6 +8379,15 @@
         </is>
       </c>
       <c r="H196" t="n">
+        <v>45</v>
+      </c>
+      <c r="I196" t="n">
+        <v>1.147</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.734</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.638</v>
       </c>
     </row>
@@ -7466,6 +8426,15 @@
         </is>
       </c>
       <c r="H197" t="n">
+        <v>74</v>
+      </c>
+      <c r="I197" t="n">
+        <v>1.107</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.641</v>
       </c>
     </row>
@@ -7504,6 +8473,9 @@
         </is>
       </c>
       <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -7540,6 +8512,9 @@
         </is>
       </c>
       <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -7576,6 +8551,15 @@
         </is>
       </c>
       <c r="H200" t="n">
+        <v>54</v>
+      </c>
+      <c r="I200" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.644</v>
       </c>
     </row>
@@ -7614,6 +8598,9 @@
         </is>
       </c>
       <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -7650,6 +8637,9 @@
         </is>
       </c>
       <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -7686,6 +8676,9 @@
         </is>
       </c>
       <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -7722,6 +8715,9 @@
         </is>
       </c>
       <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -7758,6 +8754,9 @@
         </is>
       </c>
       <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -7794,6 +8793,9 @@
         </is>
       </c>
       <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -7830,6 +8832,9 @@
         </is>
       </c>
       <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -7866,6 +8871,9 @@
         </is>
       </c>
       <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -7902,6 +8910,9 @@
         </is>
       </c>
       <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -7938,6 +8949,9 @@
         </is>
       </c>
       <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -7974,6 +8988,9 @@
         </is>
       </c>
       <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -8010,6 +9027,9 @@
         </is>
       </c>
       <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -8046,6 +9066,9 @@
         </is>
       </c>
       <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -8082,6 +9105,9 @@
         </is>
       </c>
       <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -8118,6 +9144,9 @@
         </is>
       </c>
       <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -8154,6 +9183,9 @@
         </is>
       </c>
       <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -8190,6 +9222,9 @@
         </is>
       </c>
       <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -8226,6 +9261,9 @@
         </is>
       </c>
       <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -8262,6 +9300,9 @@
         </is>
       </c>
       <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -8298,6 +9339,9 @@
         </is>
       </c>
       <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -8334,6 +9378,9 @@
         </is>
       </c>
       <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -8370,6 +9417,9 @@
         </is>
       </c>
       <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -8406,6 +9456,9 @@
         </is>
       </c>
       <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -8442,6 +9495,9 @@
         </is>
       </c>
       <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -8478,6 +9534,9 @@
         </is>
       </c>
       <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -8514,6 +9573,9 @@
         </is>
       </c>
       <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -8550,6 +9612,9 @@
         </is>
       </c>
       <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -8586,6 +9651,9 @@
         </is>
       </c>
       <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -8622,6 +9690,9 @@
         </is>
       </c>
       <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -8658,6 +9729,9 @@
         </is>
       </c>
       <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -8694,6 +9768,9 @@
         </is>
       </c>
       <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -8730,6 +9807,9 @@
         </is>
       </c>
       <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -8766,6 +9846,9 @@
         </is>
       </c>
       <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -8802,6 +9885,9 @@
         </is>
       </c>
       <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -8838,6 +9924,9 @@
         </is>
       </c>
       <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -8874,6 +9963,9 @@
         </is>
       </c>
       <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -8910,6 +10002,9 @@
         </is>
       </c>
       <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -8946,6 +10041,9 @@
         </is>
       </c>
       <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -8982,6 +10080,9 @@
         </is>
       </c>
       <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -9018,6 +10119,9 @@
         </is>
       </c>
       <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -9054,6 +10158,9 @@
         </is>
       </c>
       <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -9090,6 +10197,9 @@
         </is>
       </c>
       <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -9126,6 +10236,9 @@
         </is>
       </c>
       <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -9162,6 +10275,9 @@
         </is>
       </c>
       <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -9198,6 +10314,9 @@
         </is>
       </c>
       <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -9234,6 +10353,9 @@
         </is>
       </c>
       <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -9270,6 +10392,9 @@
         </is>
       </c>
       <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -9306,6 +10431,9 @@
         </is>
       </c>
       <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -9342,6 +10470,9 @@
         </is>
       </c>
       <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -9378,6 +10509,9 @@
         </is>
       </c>
       <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -9414,6 +10548,9 @@
         </is>
       </c>
       <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -9450,6 +10587,9 @@
         </is>
       </c>
       <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -9486,6 +10626,9 @@
         </is>
       </c>
       <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -9522,6 +10665,9 @@
         </is>
       </c>
       <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -9558,6 +10704,9 @@
         </is>
       </c>
       <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -9594,6 +10743,9 @@
         </is>
       </c>
       <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -9630,6 +10782,9 @@
         </is>
       </c>
       <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -9666,6 +10821,9 @@
         </is>
       </c>
       <c r="H258" t="inlineStr"/>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -9702,6 +10860,9 @@
         </is>
       </c>
       <c r="H259" t="inlineStr"/>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -9738,6 +10899,9 @@
         </is>
       </c>
       <c r="H260" t="inlineStr"/>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -9774,6 +10938,9 @@
         </is>
       </c>
       <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -9810,6 +10977,9 @@
         </is>
       </c>
       <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -9846,6 +11016,9 @@
         </is>
       </c>
       <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -9882,6 +11055,9 @@
         </is>
       </c>
       <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -9918,6 +11094,9 @@
         </is>
       </c>
       <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -9954,6 +11133,9 @@
         </is>
       </c>
       <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -9990,6 +11172,9 @@
         </is>
       </c>
       <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -10026,6 +11211,9 @@
         </is>
       </c>
       <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -10062,6 +11250,9 @@
         </is>
       </c>
       <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -10098,6 +11289,9 @@
         </is>
       </c>
       <c r="H270" t="inlineStr"/>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -10134,6 +11328,9 @@
         </is>
       </c>
       <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -10170,6 +11367,9 @@
         </is>
       </c>
       <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -10206,6 +11406,9 @@
         </is>
       </c>
       <c r="H273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -10242,6 +11445,9 @@
         </is>
       </c>
       <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -10278,6 +11484,9 @@
         </is>
       </c>
       <c r="H275" t="inlineStr"/>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -10314,6 +11523,9 @@
         </is>
       </c>
       <c r="H276" t="inlineStr"/>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -10350,6 +11562,15 @@
         </is>
       </c>
       <c r="H277" t="n">
+        <v>21</v>
+      </c>
+      <c r="I277" t="n">
+        <v>1.298</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="K277" t="n">
         <v>0.043</v>
       </c>
     </row>
@@ -10388,6 +11609,15 @@
         </is>
       </c>
       <c r="H278" t="n">
+        <v>11</v>
+      </c>
+      <c r="I278" t="n">
+        <v>1.377</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="K278" t="n">
         <v>0.043</v>
       </c>
     </row>
@@ -10426,6 +11656,15 @@
         </is>
       </c>
       <c r="H279" t="n">
+        <v>16</v>
+      </c>
+      <c r="I279" t="n">
+        <v>1.336</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="K279" t="n">
         <v>0.043</v>
       </c>
     </row>
@@ -10464,6 +11703,9 @@
         </is>
       </c>
       <c r="H280" t="inlineStr"/>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -10500,6 +11742,15 @@
         </is>
       </c>
       <c r="H281" t="n">
+        <v>16</v>
+      </c>
+      <c r="I281" t="n">
+        <v>1.315</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="K281" t="n">
         <v>0.043</v>
       </c>
     </row>
@@ -10538,6 +11789,15 @@
         </is>
       </c>
       <c r="H282" t="n">
+        <v>13</v>
+      </c>
+      <c r="I282" t="n">
+        <v>1.359</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="K282" t="n">
         <v>0.091</v>
       </c>
     </row>
@@ -10576,6 +11836,15 @@
         </is>
       </c>
       <c r="H283" t="n">
+        <v>8</v>
+      </c>
+      <c r="I283" t="n">
+        <v>1.392</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="K283" t="n">
         <v>0.089</v>
       </c>
     </row>
@@ -10614,6 +11883,15 @@
         </is>
       </c>
       <c r="H284" t="n">
+        <v>23</v>
+      </c>
+      <c r="I284" t="n">
+        <v>1.313</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0.514</v>
+      </c>
+      <c r="K284" t="n">
         <v>0.098</v>
       </c>
     </row>
@@ -10652,6 +11930,9 @@
         </is>
       </c>
       <c r="H285" t="inlineStr"/>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -10688,6 +11969,15 @@
         </is>
       </c>
       <c r="H286" t="n">
+        <v>14</v>
+      </c>
+      <c r="I286" t="n">
+        <v>1.333</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="K286" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -10726,6 +12016,15 @@
         </is>
       </c>
       <c r="H287" t="n">
+        <v>18</v>
+      </c>
+      <c r="I287" t="n">
+        <v>1.471</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="K287" t="n">
         <v>0.354</v>
       </c>
     </row>
@@ -10764,6 +12063,15 @@
         </is>
       </c>
       <c r="H288" t="n">
+        <v>22</v>
+      </c>
+      <c r="I288" t="n">
+        <v>1.496</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="K288" t="n">
         <v>0.349</v>
       </c>
     </row>
@@ -10802,6 +12110,15 @@
         </is>
       </c>
       <c r="H289" t="n">
+        <v>22</v>
+      </c>
+      <c r="I289" t="n">
+        <v>1.492</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="K289" t="n">
         <v>0.352</v>
       </c>
     </row>
@@ -10840,6 +12157,9 @@
         </is>
       </c>
       <c r="H290" t="inlineStr"/>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -10876,6 +12196,15 @@
         </is>
       </c>
       <c r="H291" t="n">
+        <v>22</v>
+      </c>
+      <c r="I291" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="K291" t="n">
         <v>0.353</v>
       </c>
     </row>
@@ -10914,6 +12243,15 @@
         </is>
       </c>
       <c r="H292" t="n">
+        <v>26</v>
+      </c>
+      <c r="I292" t="n">
+        <v>1.333</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="K292" t="n">
         <v>0.131</v>
       </c>
     </row>
@@ -10952,6 +12290,15 @@
         </is>
       </c>
       <c r="H293" t="n">
+        <v>27</v>
+      </c>
+      <c r="I293" t="n">
+        <v>1.357</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="K293" t="n">
         <v>0.132</v>
       </c>
     </row>
@@ -10990,6 +12337,15 @@
         </is>
       </c>
       <c r="H294" t="n">
+        <v>23</v>
+      </c>
+      <c r="I294" t="n">
+        <v>1.357</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="K294" t="n">
         <v>0.132</v>
       </c>
     </row>
@@ -11028,6 +12384,9 @@
         </is>
       </c>
       <c r="H295" t="inlineStr"/>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -11064,6 +12423,15 @@
         </is>
       </c>
       <c r="H296" t="n">
+        <v>16</v>
+      </c>
+      <c r="I296" t="n">
+        <v>1.375</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="K296" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -11102,6 +12470,15 @@
         </is>
       </c>
       <c r="H297" t="n">
+        <v>45</v>
+      </c>
+      <c r="I297" t="n">
+        <v>1.147</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0.734</v>
+      </c>
+      <c r="K297" t="n">
         <v>0.638</v>
       </c>
     </row>
@@ -11140,6 +12517,15 @@
         </is>
       </c>
       <c r="H298" t="n">
+        <v>74</v>
+      </c>
+      <c r="I298" t="n">
+        <v>1.107</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="K298" t="n">
         <v>0.641</v>
       </c>
     </row>
@@ -11178,6 +12564,9 @@
         </is>
       </c>
       <c r="H299" t="inlineStr"/>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -11214,6 +12603,9 @@
         </is>
       </c>
       <c r="H300" t="inlineStr"/>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -11250,6 +12642,15 @@
         </is>
       </c>
       <c r="H301" t="n">
+        <v>54</v>
+      </c>
+      <c r="I301" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="K301" t="n">
         <v>0.644</v>
       </c>
     </row>
@@ -11288,6 +12689,9 @@
         </is>
       </c>
       <c r="H302" t="inlineStr"/>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -11324,6 +12728,9 @@
         </is>
       </c>
       <c r="H303" t="inlineStr"/>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -11360,6 +12767,9 @@
         </is>
       </c>
       <c r="H304" t="inlineStr"/>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -11396,6 +12806,9 @@
         </is>
       </c>
       <c r="H305" t="inlineStr"/>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -11432,6 +12845,9 @@
         </is>
       </c>
       <c r="H306" t="inlineStr"/>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -11468,6 +12884,9 @@
         </is>
       </c>
       <c r="H307" t="inlineStr"/>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -11504,6 +12923,9 @@
         </is>
       </c>
       <c r="H308" t="inlineStr"/>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -11540,6 +12962,9 @@
         </is>
       </c>
       <c r="H309" t="inlineStr"/>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -11576,6 +13001,9 @@
         </is>
       </c>
       <c r="H310" t="inlineStr"/>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -11612,6 +13040,9 @@
         </is>
       </c>
       <c r="H311" t="inlineStr"/>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -11648,6 +13079,9 @@
         </is>
       </c>
       <c r="H312" t="inlineStr"/>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -11684,6 +13118,9 @@
         </is>
       </c>
       <c r="H313" t="inlineStr"/>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -11720,6 +13157,9 @@
         </is>
       </c>
       <c r="H314" t="inlineStr"/>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -11756,6 +13196,9 @@
         </is>
       </c>
       <c r="H315" t="inlineStr"/>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -11792,6 +13235,9 @@
         </is>
       </c>
       <c r="H316" t="inlineStr"/>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -11828,6 +13274,9 @@
         </is>
       </c>
       <c r="H317" t="inlineStr"/>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -11864,6 +13313,9 @@
         </is>
       </c>
       <c r="H318" t="inlineStr"/>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -11900,6 +13352,9 @@
         </is>
       </c>
       <c r="H319" t="inlineStr"/>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -11936,6 +13391,9 @@
         </is>
       </c>
       <c r="H320" t="inlineStr"/>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -11972,6 +13430,9 @@
         </is>
       </c>
       <c r="H321" t="inlineStr"/>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -12008,6 +13469,9 @@
         </is>
       </c>
       <c r="H322" t="inlineStr"/>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -12044,6 +13508,9 @@
         </is>
       </c>
       <c r="H323" t="inlineStr"/>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -12080,6 +13547,9 @@
         </is>
       </c>
       <c r="H324" t="inlineStr"/>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -12116,6 +13586,9 @@
         </is>
       </c>
       <c r="H325" t="inlineStr"/>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -12152,6 +13625,9 @@
         </is>
       </c>
       <c r="H326" t="inlineStr"/>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -12188,6 +13664,9 @@
         </is>
       </c>
       <c r="H327" t="inlineStr"/>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -12224,6 +13703,9 @@
         </is>
       </c>
       <c r="H328" t="inlineStr"/>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -12260,6 +13742,9 @@
         </is>
       </c>
       <c r="H329" t="inlineStr"/>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -12296,6 +13781,9 @@
         </is>
       </c>
       <c r="H330" t="inlineStr"/>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -12332,6 +13820,9 @@
         </is>
       </c>
       <c r="H331" t="inlineStr"/>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -12368,6 +13859,9 @@
         </is>
       </c>
       <c r="H332" t="inlineStr"/>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -12404,6 +13898,9 @@
         </is>
       </c>
       <c r="H333" t="inlineStr"/>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -12440,6 +13937,9 @@
         </is>
       </c>
       <c r="H334" t="inlineStr"/>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -12476,6 +13976,9 @@
         </is>
       </c>
       <c r="H335" t="inlineStr"/>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -12512,6 +14015,9 @@
         </is>
       </c>
       <c r="H336" t="inlineStr"/>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -12548,6 +14054,9 @@
         </is>
       </c>
       <c r="H337" t="inlineStr"/>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -12584,6 +14093,9 @@
         </is>
       </c>
       <c r="H338" t="inlineStr"/>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -12620,6 +14132,9 @@
         </is>
       </c>
       <c r="H339" t="inlineStr"/>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -12656,6 +14171,9 @@
         </is>
       </c>
       <c r="H340" t="inlineStr"/>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -12692,6 +14210,9 @@
         </is>
       </c>
       <c r="H341" t="inlineStr"/>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -12728,6 +14249,9 @@
         </is>
       </c>
       <c r="H342" t="inlineStr"/>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -12764,6 +14288,9 @@
         </is>
       </c>
       <c r="H343" t="inlineStr"/>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -12800,6 +14327,9 @@
         </is>
       </c>
       <c r="H344" t="inlineStr"/>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -12836,6 +14366,9 @@
         </is>
       </c>
       <c r="H345" t="inlineStr"/>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -12872,6 +14405,9 @@
         </is>
       </c>
       <c r="H346" t="inlineStr"/>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -12908,6 +14444,9 @@
         </is>
       </c>
       <c r="H347" t="inlineStr"/>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -12944,6 +14483,9 @@
         </is>
       </c>
       <c r="H348" t="inlineStr"/>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -12980,6 +14522,9 @@
         </is>
       </c>
       <c r="H349" t="inlineStr"/>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -13016,6 +14561,9 @@
         </is>
       </c>
       <c r="H350" t="inlineStr"/>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -13052,6 +14600,9 @@
         </is>
       </c>
       <c r="H351" t="inlineStr"/>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -13088,6 +14639,9 @@
         </is>
       </c>
       <c r="H352" t="inlineStr"/>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -13124,6 +14678,9 @@
         </is>
       </c>
       <c r="H353" t="inlineStr"/>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -13160,6 +14717,9 @@
         </is>
       </c>
       <c r="H354" t="inlineStr"/>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -13196,6 +14756,9 @@
         </is>
       </c>
       <c r="H355" t="inlineStr"/>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -13232,6 +14795,9 @@
         </is>
       </c>
       <c r="H356" t="inlineStr"/>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -13268,6 +14834,9 @@
         </is>
       </c>
       <c r="H357" t="inlineStr"/>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -13304,6 +14873,9 @@
         </is>
       </c>
       <c r="H358" t="inlineStr"/>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -13340,6 +14912,9 @@
         </is>
       </c>
       <c r="H359" t="inlineStr"/>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -13376,6 +14951,9 @@
         </is>
       </c>
       <c r="H360" t="inlineStr"/>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -13412,6 +14990,9 @@
         </is>
       </c>
       <c r="H361" t="inlineStr"/>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -13448,6 +15029,9 @@
         </is>
       </c>
       <c r="H362" t="inlineStr"/>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -13484,6 +15068,9 @@
         </is>
       </c>
       <c r="H363" t="inlineStr"/>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -13520,6 +15107,9 @@
         </is>
       </c>
       <c r="H364" t="inlineStr"/>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -13556,6 +15146,9 @@
         </is>
       </c>
       <c r="H365" t="inlineStr"/>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -13592,6 +15185,9 @@
         </is>
       </c>
       <c r="H366" t="inlineStr"/>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -13628,6 +15224,9 @@
         </is>
       </c>
       <c r="H367" t="inlineStr"/>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -13664,6 +15263,9 @@
         </is>
       </c>
       <c r="H368" t="inlineStr"/>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -13700,6 +15302,9 @@
         </is>
       </c>
       <c r="H369" t="inlineStr"/>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -13736,6 +15341,9 @@
         </is>
       </c>
       <c r="H370" t="inlineStr"/>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -13772,6 +15380,9 @@
         </is>
       </c>
       <c r="H371" t="inlineStr"/>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -13808,6 +15419,9 @@
         </is>
       </c>
       <c r="H372" t="inlineStr"/>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -13844,6 +15458,9 @@
         </is>
       </c>
       <c r="H373" t="inlineStr"/>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -13880,6 +15497,9 @@
         </is>
       </c>
       <c r="H374" t="inlineStr"/>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -13916,6 +15536,9 @@
         </is>
       </c>
       <c r="H375" t="inlineStr"/>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -13952,6 +15575,9 @@
         </is>
       </c>
       <c r="H376" t="inlineStr"/>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -13988,6 +15614,9 @@
         </is>
       </c>
       <c r="H377" t="inlineStr"/>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -14024,6 +15653,9 @@
         </is>
       </c>
       <c r="H378" t="inlineStr"/>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -14060,6 +15692,9 @@
         </is>
       </c>
       <c r="H379" t="inlineStr"/>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -14096,6 +15731,9 @@
         </is>
       </c>
       <c r="H380" t="inlineStr"/>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -14132,6 +15770,15 @@
         </is>
       </c>
       <c r="H381" t="n">
+        <v>18</v>
+      </c>
+      <c r="I381" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="J381" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="K381" t="n">
         <v>0.043</v>
       </c>
     </row>
@@ -14170,6 +15817,15 @@
         </is>
       </c>
       <c r="H382" t="n">
+        <v>16</v>
+      </c>
+      <c r="I382" t="n">
+        <v>1.386</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="K382" t="n">
         <v>0.043</v>
       </c>
     </row>
@@ -14208,6 +15864,15 @@
         </is>
       </c>
       <c r="H383" t="n">
+        <v>6</v>
+      </c>
+      <c r="I383" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="J383" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="K383" t="n">
         <v>0.043</v>
       </c>
     </row>
@@ -14246,6 +15911,9 @@
         </is>
       </c>
       <c r="H384" t="inlineStr"/>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -14282,6 +15950,15 @@
         </is>
       </c>
       <c r="H385" t="n">
+        <v>20</v>
+      </c>
+      <c r="I385" t="n">
+        <v>1.342</v>
+      </c>
+      <c r="J385" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="K385" t="n">
         <v>0.047</v>
       </c>
     </row>
@@ -14320,6 +15997,15 @@
         </is>
       </c>
       <c r="H386" t="n">
+        <v>21</v>
+      </c>
+      <c r="I386" t="n">
+        <v>1.362</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="K386" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -14358,6 +16044,15 @@
         </is>
       </c>
       <c r="H387" t="n">
+        <v>25</v>
+      </c>
+      <c r="I387" t="n">
+        <v>1.346</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="K387" t="n">
         <v>0.097</v>
       </c>
     </row>
@@ -14396,6 +16091,15 @@
         </is>
       </c>
       <c r="H388" t="n">
+        <v>17</v>
+      </c>
+      <c r="I388" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="K388" t="n">
         <v>0.095</v>
       </c>
     </row>
@@ -14434,6 +16138,9 @@
         </is>
       </c>
       <c r="H389" t="inlineStr"/>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -14470,6 +16177,15 @@
         </is>
       </c>
       <c r="H390" t="n">
+        <v>14</v>
+      </c>
+      <c r="I390" t="n">
+        <v>1.383</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="K390" t="n">
         <v>0.091</v>
       </c>
     </row>
@@ -14508,6 +16224,15 @@
         </is>
       </c>
       <c r="H391" t="n">
+        <v>16</v>
+      </c>
+      <c r="I391" t="n">
+        <v>1.515</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="K391" t="n">
         <v>0.354</v>
       </c>
     </row>
@@ -14546,6 +16271,15 @@
         </is>
       </c>
       <c r="H392" t="n">
+        <v>13</v>
+      </c>
+      <c r="I392" t="n">
+        <v>1.516</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="K392" t="n">
         <v>0.349</v>
       </c>
     </row>
@@ -14584,6 +16318,15 @@
         </is>
       </c>
       <c r="H393" t="n">
+        <v>13</v>
+      </c>
+      <c r="I393" t="n">
+        <v>1.506</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="K393" t="n">
         <v>0.355</v>
       </c>
     </row>
@@ -14622,6 +16365,9 @@
         </is>
       </c>
       <c r="H394" t="inlineStr"/>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -14658,6 +16404,15 @@
         </is>
       </c>
       <c r="H395" t="n">
+        <v>13</v>
+      </c>
+      <c r="I395" t="n">
+        <v>1.493</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0.501</v>
+      </c>
+      <c r="K395" t="n">
         <v>0.345</v>
       </c>
     </row>
@@ -14696,6 +16451,15 @@
         </is>
       </c>
       <c r="H396" t="n">
+        <v>21</v>
+      </c>
+      <c r="I396" t="n">
+        <v>1.418</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0.514</v>
+      </c>
+      <c r="K396" t="n">
         <v>0.133</v>
       </c>
     </row>
@@ -14734,6 +16498,15 @@
         </is>
       </c>
       <c r="H397" t="n">
+        <v>23</v>
+      </c>
+      <c r="I397" t="n">
+        <v>1.423</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="K397" t="n">
         <v>0.131</v>
       </c>
     </row>
@@ -14772,6 +16545,15 @@
         </is>
       </c>
       <c r="H398" t="n">
+        <v>10</v>
+      </c>
+      <c r="I398" t="n">
+        <v>1.474</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="K398" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -14810,6 +16592,9 @@
         </is>
       </c>
       <c r="H399" t="inlineStr"/>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -14846,6 +16631,15 @@
         </is>
       </c>
       <c r="H400" t="n">
+        <v>10</v>
+      </c>
+      <c r="I400" t="n">
+        <v>1.463</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="K400" t="n">
         <v>0.129</v>
       </c>
     </row>
@@ -14884,6 +16678,15 @@
         </is>
       </c>
       <c r="H401" t="n">
+        <v>32</v>
+      </c>
+      <c r="I401" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J401" t="n">
+        <v>0.753</v>
+      </c>
+      <c r="K401" t="n">
         <v>0.627</v>
       </c>
     </row>
@@ -14922,6 +16725,15 @@
         </is>
       </c>
       <c r="H402" t="n">
+        <v>24</v>
+      </c>
+      <c r="I402" t="n">
+        <v>1.187</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0.742</v>
+      </c>
+      <c r="K402" t="n">
         <v>0.624</v>
       </c>
     </row>
@@ -14960,6 +16772,15 @@
         </is>
       </c>
       <c r="H403" t="n">
+        <v>31</v>
+      </c>
+      <c r="I403" t="n">
+        <v>1.172</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0.749</v>
+      </c>
+      <c r="K403" t="n">
         <v>0.627</v>
       </c>
     </row>
@@ -14998,6 +16819,9 @@
         </is>
       </c>
       <c r="H404" t="inlineStr"/>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -15034,6 +16858,15 @@
         </is>
       </c>
       <c r="H405" t="n">
+        <v>57</v>
+      </c>
+      <c r="I405" t="n">
+        <v>1.122</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0.768</v>
+      </c>
+      <c r="K405" t="n">
         <v>0.645</v>
       </c>
     </row>
@@ -15072,6 +16905,15 @@
         </is>
       </c>
       <c r="H406" t="n">
+        <v>17</v>
+      </c>
+      <c r="I406" t="n">
+        <v>1.329</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="K406" t="n">
         <v>0.043</v>
       </c>
     </row>
@@ -15110,6 +16952,15 @@
         </is>
       </c>
       <c r="H407" t="n">
+        <v>10</v>
+      </c>
+      <c r="I407" t="n">
+        <v>1.385</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="K407" t="n">
         <v>0.043</v>
       </c>
     </row>
@@ -15148,6 +16999,15 @@
         </is>
       </c>
       <c r="H408" t="n">
+        <v>11</v>
+      </c>
+      <c r="I408" t="n">
+        <v>1.377</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="K408" t="n">
         <v>0.043</v>
       </c>
     </row>
@@ -15186,6 +17046,9 @@
         </is>
       </c>
       <c r="H409" t="inlineStr"/>
+      <c r="I409" t="inlineStr"/>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -15222,6 +17085,15 @@
         </is>
       </c>
       <c r="H410" t="n">
+        <v>18</v>
+      </c>
+      <c r="I410" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="K410" t="n">
         <v>0.043</v>
       </c>
     </row>
@@ -15260,6 +17132,15 @@
         </is>
       </c>
       <c r="H411" t="n">
+        <v>12</v>
+      </c>
+      <c r="I411" t="n">
+        <v>1.366</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="K411" t="n">
         <v>0.091</v>
       </c>
     </row>
@@ -15298,6 +17179,15 @@
         </is>
       </c>
       <c r="H412" t="n">
+        <v>23</v>
+      </c>
+      <c r="I412" t="n">
+        <v>1.312</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="K412" t="n">
         <v>0.098</v>
       </c>
     </row>
@@ -15336,6 +17226,15 @@
         </is>
       </c>
       <c r="H413" t="n">
+        <v>22</v>
+      </c>
+      <c r="I413" t="n">
+        <v>1.315</v>
+      </c>
+      <c r="J413" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="K413" t="n">
         <v>0.097</v>
       </c>
     </row>
@@ -15374,6 +17273,9 @@
         </is>
       </c>
       <c r="H414" t="inlineStr"/>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -15410,6 +17312,15 @@
         </is>
       </c>
       <c r="H415" t="n">
+        <v>8</v>
+      </c>
+      <c r="I415" t="n">
+        <v>1.374</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0.503</v>
+      </c>
+      <c r="K415" t="n">
         <v>0.089</v>
       </c>
     </row>
@@ -15448,6 +17359,15 @@
         </is>
       </c>
       <c r="H416" t="n">
+        <v>18</v>
+      </c>
+      <c r="I416" t="n">
+        <v>1.471</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="K416" t="n">
         <v>0.354</v>
       </c>
     </row>
@@ -15486,6 +17406,15 @@
         </is>
       </c>
       <c r="H417" t="n">
+        <v>22</v>
+      </c>
+      <c r="I417" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="J417" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="K417" t="n">
         <v>0.351</v>
       </c>
     </row>
@@ -15524,6 +17453,15 @@
         </is>
       </c>
       <c r="H418" t="n">
+        <v>22</v>
+      </c>
+      <c r="I418" t="n">
+        <v>1.489</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="K418" t="n">
         <v>0.351</v>
       </c>
     </row>
@@ -15562,6 +17500,9 @@
         </is>
       </c>
       <c r="H419" t="inlineStr"/>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -15598,6 +17539,15 @@
         </is>
       </c>
       <c r="H420" t="n">
+        <v>24</v>
+      </c>
+      <c r="I420" t="n">
+        <v>1.457</v>
+      </c>
+      <c r="J420" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="K420" t="n">
         <v>0.354</v>
       </c>
     </row>
@@ -15636,6 +17586,15 @@
         </is>
       </c>
       <c r="H421" t="n">
+        <v>20</v>
+      </c>
+      <c r="I421" t="n">
+        <v>1.371</v>
+      </c>
+      <c r="J421" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="K421" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -15674,6 +17633,15 @@
         </is>
       </c>
       <c r="H422" t="n">
+        <v>31</v>
+      </c>
+      <c r="I422" t="n">
+        <v>1.333</v>
+      </c>
+      <c r="J422" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="K422" t="n">
         <v>0.133</v>
       </c>
     </row>
@@ -15712,6 +17680,15 @@
         </is>
       </c>
       <c r="H423" t="n">
+        <v>25</v>
+      </c>
+      <c r="I423" t="n">
+        <v>1.357</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="K423" t="n">
         <v>0.133</v>
       </c>
     </row>
@@ -15750,6 +17727,9 @@
         </is>
       </c>
       <c r="H424" t="inlineStr"/>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -15786,6 +17766,15 @@
         </is>
       </c>
       <c r="H425" t="n">
+        <v>13</v>
+      </c>
+      <c r="I425" t="n">
+        <v>1.393</v>
+      </c>
+      <c r="J425" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="K425" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -15824,6 +17813,15 @@
         </is>
       </c>
       <c r="H426" t="n">
+        <v>45</v>
+      </c>
+      <c r="I426" t="n">
+        <v>1.147</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0.734</v>
+      </c>
+      <c r="K426" t="n">
         <v>0.638</v>
       </c>
     </row>
@@ -15862,6 +17860,15 @@
         </is>
       </c>
       <c r="H427" t="n">
+        <v>70</v>
+      </c>
+      <c r="I427" t="n">
+        <v>1.112</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="K427" t="n">
         <v>0.642</v>
       </c>
     </row>
@@ -15900,6 +17907,15 @@
         </is>
       </c>
       <c r="H428" t="n">
+        <v>30</v>
+      </c>
+      <c r="I428" t="n">
+        <v>1.175</v>
+      </c>
+      <c r="J428" t="n">
+        <v>0.706</v>
+      </c>
+      <c r="K428" t="n">
         <v>0.599</v>
       </c>
     </row>
@@ -15938,6 +17954,9 @@
         </is>
       </c>
       <c r="H429" t="inlineStr"/>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -15974,6 +17993,15 @@
         </is>
       </c>
       <c r="H430" t="n">
+        <v>54</v>
+      </c>
+      <c r="I430" t="n">
+        <v>1.126</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="K430" t="n">
         <v>0.645</v>
       </c>
     </row>
@@ -16012,6 +18040,15 @@
         </is>
       </c>
       <c r="H431" t="n">
+        <v>45</v>
+      </c>
+      <c r="I431" t="n">
+        <v>1.078</v>
+      </c>
+      <c r="J431" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="K431" t="n">
         <v>0.218</v>
       </c>
     </row>
@@ -16050,6 +18087,15 @@
         </is>
       </c>
       <c r="H432" t="n">
+        <v>56</v>
+      </c>
+      <c r="I432" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="J432" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="K432" t="n">
         <v>0.168</v>
       </c>
     </row>
@@ -16088,6 +18134,15 @@
         </is>
       </c>
       <c r="H433" t="n">
+        <v>50</v>
+      </c>
+      <c r="I433" t="n">
+        <v>1.179</v>
+      </c>
+      <c r="J433" t="n">
+        <v>0.629</v>
+      </c>
+      <c r="K433" t="n">
         <v>0.199</v>
       </c>
     </row>
@@ -16126,6 +18181,9 @@
         </is>
       </c>
       <c r="H434" t="inlineStr"/>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -16162,6 +18220,15 @@
         </is>
       </c>
       <c r="H435" t="n">
+        <v>47</v>
+      </c>
+      <c r="I435" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="J435" t="n">
+        <v>0.638</v>
+      </c>
+      <c r="K435" t="n">
         <v>0.216</v>
       </c>
     </row>
@@ -16200,6 +18267,15 @@
         </is>
       </c>
       <c r="H436" t="n">
+        <v>27</v>
+      </c>
+      <c r="I436" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="J436" t="n">
+        <v>0.659</v>
+      </c>
+      <c r="K436" t="n">
         <v>0.133</v>
       </c>
     </row>
@@ -16238,6 +18314,15 @@
         </is>
       </c>
       <c r="H437" t="n">
+        <v>19</v>
+      </c>
+      <c r="I437" t="n">
+        <v>0.849</v>
+      </c>
+      <c r="J437" t="n">
+        <v>0.643</v>
+      </c>
+      <c r="K437" t="n">
         <v>0.105</v>
       </c>
     </row>
@@ -16276,6 +18361,15 @@
         </is>
       </c>
       <c r="H438" t="n">
+        <v>24</v>
+      </c>
+      <c r="I438" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="J438" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="K438" t="n">
         <v>0.141</v>
       </c>
     </row>
@@ -16314,6 +18408,9 @@
         </is>
       </c>
       <c r="H439" t="inlineStr"/>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -16350,6 +18447,15 @@
         </is>
       </c>
       <c r="H440" t="n">
+        <v>17</v>
+      </c>
+      <c r="I440" t="n">
+        <v>0.791</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="K440" t="n">
         <v>0.149</v>
       </c>
     </row>
@@ -16388,6 +18494,15 @@
         </is>
       </c>
       <c r="H441" t="n">
+        <v>18</v>
+      </c>
+      <c r="I441" t="n">
+        <v>1.319</v>
+      </c>
+      <c r="J441" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="K441" t="n">
         <v>0.487</v>
       </c>
     </row>
@@ -16426,6 +18541,15 @@
         </is>
       </c>
       <c r="H442" t="n">
+        <v>19</v>
+      </c>
+      <c r="I442" t="n">
+        <v>1.366</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="K442" t="n">
         <v>0.501</v>
       </c>
     </row>
@@ -16464,6 +18588,15 @@
         </is>
       </c>
       <c r="H443" t="n">
+        <v>18</v>
+      </c>
+      <c r="I443" t="n">
+        <v>1.305</v>
+      </c>
+      <c r="J443" t="n">
+        <v>0.713</v>
+      </c>
+      <c r="K443" t="n">
         <v>0.495</v>
       </c>
     </row>
@@ -16502,6 +18635,9 @@
         </is>
       </c>
       <c r="H444" t="inlineStr"/>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -16538,6 +18674,15 @@
         </is>
       </c>
       <c r="H445" t="n">
+        <v>20</v>
+      </c>
+      <c r="I445" t="n">
+        <v>1.295</v>
+      </c>
+      <c r="J445" t="n">
+        <v>0.704</v>
+      </c>
+      <c r="K445" t="n">
         <v>0.489</v>
       </c>
     </row>
@@ -16576,6 +18721,15 @@
         </is>
       </c>
       <c r="H446" t="n">
+        <v>21</v>
+      </c>
+      <c r="I446" t="n">
+        <v>1.013</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0.638</v>
+      </c>
+      <c r="K446" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -16614,6 +18768,15 @@
         </is>
       </c>
       <c r="H447" t="n">
+        <v>28</v>
+      </c>
+      <c r="I447" t="n">
+        <v>1.203</v>
+      </c>
+      <c r="J447" t="n">
+        <v>0.656</v>
+      </c>
+      <c r="K447" t="n">
         <v>0.166</v>
       </c>
     </row>
@@ -16652,6 +18815,15 @@
         </is>
       </c>
       <c r="H448" t="n">
+        <v>27</v>
+      </c>
+      <c r="I448" t="n">
+        <v>1.054</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0.659</v>
+      </c>
+      <c r="K448" t="n">
         <v>0.162</v>
       </c>
     </row>
@@ -16690,6 +18862,9 @@
         </is>
       </c>
       <c r="H449" t="inlineStr"/>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -16726,6 +18901,15 @@
         </is>
       </c>
       <c r="H450" t="n">
+        <v>21</v>
+      </c>
+      <c r="I450" t="n">
+        <v>0.963</v>
+      </c>
+      <c r="J450" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="K450" t="n">
         <v>0.141</v>
       </c>
     </row>
@@ -16764,6 +18948,15 @@
         </is>
       </c>
       <c r="H451" t="n">
+        <v>80</v>
+      </c>
+      <c r="I451" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="K451" t="n">
         <v>0.455</v>
       </c>
     </row>
@@ -16802,6 +18995,15 @@
         </is>
       </c>
       <c r="H452" t="n">
+        <v>59</v>
+      </c>
+      <c r="I452" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="J452" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="K452" t="n">
         <v>0.426</v>
       </c>
     </row>
@@ -16840,6 +19042,15 @@
         </is>
       </c>
       <c r="H453" t="n">
+        <v>65</v>
+      </c>
+      <c r="I453" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J453" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="K453" t="n">
         <v>0.459</v>
       </c>
     </row>
@@ -16878,6 +19089,9 @@
         </is>
       </c>
       <c r="H454" t="inlineStr"/>
+      <c r="I454" t="inlineStr"/>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -16914,6 +19128,15 @@
         </is>
       </c>
       <c r="H455" t="n">
+        <v>108</v>
+      </c>
+      <c r="I455" t="n">
+        <v>0.671</v>
+      </c>
+      <c r="J455" t="n">
+        <v>0.781</v>
+      </c>
+      <c r="K455" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -16952,6 +19175,15 @@
         </is>
       </c>
       <c r="H456" t="n">
+        <v>6</v>
+      </c>
+      <c r="I456" t="n">
+        <v>1.034</v>
+      </c>
+      <c r="J456" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="K456" t="n">
         <v>0.108</v>
       </c>
     </row>
@@ -16990,6 +19222,15 @@
         </is>
       </c>
       <c r="H457" t="n">
+        <v>8</v>
+      </c>
+      <c r="I457" t="n">
+        <v>1.034</v>
+      </c>
+      <c r="J457" t="n">
+        <v>0.514</v>
+      </c>
+      <c r="K457" t="n">
         <v>0.108</v>
       </c>
     </row>
@@ -17028,6 +19269,15 @@
         </is>
       </c>
       <c r="H458" t="n">
+        <v>9</v>
+      </c>
+      <c r="I458" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="K458" t="n">
         <v>0.107</v>
       </c>
     </row>
@@ -17066,6 +19316,9 @@
         </is>
       </c>
       <c r="H459" t="inlineStr"/>
+      <c r="I459" t="inlineStr"/>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -17102,6 +19355,15 @@
         </is>
       </c>
       <c r="H460" t="n">
+        <v>8</v>
+      </c>
+      <c r="I460" t="n">
+        <v>1.025</v>
+      </c>
+      <c r="J460" t="n">
+        <v>0.503</v>
+      </c>
+      <c r="K460" t="n">
         <v>0.106</v>
       </c>
     </row>
@@ -17140,6 +19402,15 @@
         </is>
       </c>
       <c r="H461" t="n">
+        <v>37</v>
+      </c>
+      <c r="I461" t="n">
+        <v>0.792</v>
+      </c>
+      <c r="J461" t="n">
+        <v>0.657</v>
+      </c>
+      <c r="K461" t="n">
         <v>0.113</v>
       </c>
     </row>
@@ -17178,6 +19449,15 @@
         </is>
       </c>
       <c r="H462" t="n">
+        <v>26</v>
+      </c>
+      <c r="I462" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="J462" t="n">
+        <v>0.629</v>
+      </c>
+      <c r="K462" t="n">
         <v>0.099</v>
       </c>
     </row>
@@ -17216,6 +19496,15 @@
         </is>
       </c>
       <c r="H463" t="n">
+        <v>25</v>
+      </c>
+      <c r="I463" t="n">
+        <v>0.836</v>
+      </c>
+      <c r="J463" t="n">
+        <v>0.673</v>
+      </c>
+      <c r="K463" t="n">
         <v>0.136</v>
       </c>
     </row>
@@ -17254,6 +19543,9 @@
         </is>
       </c>
       <c r="H464" t="inlineStr"/>
+      <c r="I464" t="inlineStr"/>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -17290,6 +19582,15 @@
         </is>
       </c>
       <c r="H465" t="n">
+        <v>26</v>
+      </c>
+      <c r="I465" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="J465" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="K465" t="n">
         <v>0.161</v>
       </c>
     </row>
@@ -17328,6 +19629,15 @@
         </is>
       </c>
       <c r="H466" t="n">
+        <v>15</v>
+      </c>
+      <c r="I466" t="n">
+        <v>1.279</v>
+      </c>
+      <c r="J466" t="n">
+        <v>0.696</v>
+      </c>
+      <c r="K466" t="n">
         <v>0.473</v>
       </c>
     </row>
@@ -17366,6 +19676,15 @@
         </is>
       </c>
       <c r="H467" t="n">
+        <v>19</v>
+      </c>
+      <c r="I467" t="n">
+        <v>1.274</v>
+      </c>
+      <c r="J467" t="n">
+        <v>0.701</v>
+      </c>
+      <c r="K467" t="n">
         <v>0.482</v>
       </c>
     </row>
@@ -17404,6 +19723,15 @@
         </is>
       </c>
       <c r="H468" t="n">
+        <v>23</v>
+      </c>
+      <c r="I468" t="n">
+        <v>1.389</v>
+      </c>
+      <c r="J468" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="K468" t="n">
         <v>0.462</v>
       </c>
     </row>
@@ -17442,6 +19770,9 @@
         </is>
       </c>
       <c r="H469" t="inlineStr"/>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -17478,6 +19809,15 @@
         </is>
       </c>
       <c r="H470" t="n">
+        <v>26</v>
+      </c>
+      <c r="I470" t="n">
+        <v>1.238</v>
+      </c>
+      <c r="J470" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="K470" t="n">
         <v>0.508</v>
       </c>
     </row>
@@ -17516,6 +19856,15 @@
         </is>
       </c>
       <c r="H471" t="n">
+        <v>28</v>
+      </c>
+      <c r="I471" t="n">
+        <v>0.931</v>
+      </c>
+      <c r="J471" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="K471" t="n">
         <v>0.162</v>
       </c>
     </row>
@@ -17554,6 +19903,15 @@
         </is>
       </c>
       <c r="H472" t="n">
+        <v>16</v>
+      </c>
+      <c r="I472" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J472" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="K472" t="n">
         <v>0.149</v>
       </c>
     </row>
@@ -17592,6 +19950,15 @@
         </is>
       </c>
       <c r="H473" t="n">
+        <v>19</v>
+      </c>
+      <c r="I473" t="n">
+        <v>1.187</v>
+      </c>
+      <c r="J473" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="K473" t="n">
         <v>0.155</v>
       </c>
     </row>
@@ -17630,6 +19997,9 @@
         </is>
       </c>
       <c r="H474" t="inlineStr"/>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -17666,6 +20036,15 @@
         </is>
       </c>
       <c r="H475" t="n">
+        <v>28</v>
+      </c>
+      <c r="I475" t="n">
+        <v>0.878</v>
+      </c>
+      <c r="J475" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="K475" t="n">
         <v>0.151</v>
       </c>
     </row>
@@ -17704,6 +20083,15 @@
         </is>
       </c>
       <c r="H476" t="n">
+        <v>91</v>
+      </c>
+      <c r="I476" t="n">
+        <v>0.681</v>
+      </c>
+      <c r="J476" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="K476" t="n">
         <v>0.439</v>
       </c>
     </row>
@@ -17742,6 +20130,15 @@
         </is>
       </c>
       <c r="H477" t="n">
+        <v>90</v>
+      </c>
+      <c r="I477" t="n">
+        <v>0.713</v>
+      </c>
+      <c r="J477" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="K477" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -17780,6 +20177,15 @@
         </is>
       </c>
       <c r="H478" t="n">
+        <v>102</v>
+      </c>
+      <c r="I478" t="n">
+        <v>0.704</v>
+      </c>
+      <c r="J478" t="n">
+        <v>0.751</v>
+      </c>
+      <c r="K478" t="n">
         <v>0.403</v>
       </c>
     </row>
@@ -17818,6 +20224,9 @@
         </is>
       </c>
       <c r="H479" t="inlineStr"/>
+      <c r="I479" t="inlineStr"/>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -17854,6 +20263,15 @@
         </is>
       </c>
       <c r="H480" t="n">
+        <v>111</v>
+      </c>
+      <c r="I480" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="J480" t="n">
+        <v>0.772</v>
+      </c>
+      <c r="K480" t="n">
         <v>0.427</v>
       </c>
     </row>
@@ -17892,6 +20310,9 @@
         </is>
       </c>
       <c r="H481" t="inlineStr"/>
+      <c r="I481" t="inlineStr"/>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -17928,6 +20349,9 @@
         </is>
       </c>
       <c r="H482" t="inlineStr"/>
+      <c r="I482" t="inlineStr"/>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -17964,6 +20388,9 @@
         </is>
       </c>
       <c r="H483" t="inlineStr"/>
+      <c r="I483" t="inlineStr"/>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -18000,6 +20427,9 @@
         </is>
       </c>
       <c r="H484" t="inlineStr"/>
+      <c r="I484" t="inlineStr"/>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -18036,6 +20466,15 @@
         </is>
       </c>
       <c r="H485" t="n">
+        <v>6</v>
+      </c>
+      <c r="I485" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="J485" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="K485" t="n">
         <v>0.043</v>
       </c>
     </row>
@@ -18074,6 +20513,15 @@
         </is>
       </c>
       <c r="H486" t="n">
+        <v>31</v>
+      </c>
+      <c r="I486" t="n">
+        <v>1.269</v>
+      </c>
+      <c r="J486" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="K486" t="n">
         <v>0.047</v>
       </c>
     </row>
@@ -18112,6 +20560,15 @@
         </is>
       </c>
       <c r="H487" t="n">
+        <v>8</v>
+      </c>
+      <c r="I487" t="n">
+        <v>1.476</v>
+      </c>
+      <c r="J487" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="K487" t="n">
         <v>0.043</v>
       </c>
     </row>
@@ -18150,6 +20607,15 @@
         </is>
       </c>
       <c r="H488" t="n">
+        <v>7</v>
+      </c>
+      <c r="I488" t="n">
+        <v>1.449</v>
+      </c>
+      <c r="J488" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="K488" t="n">
         <v>0.043</v>
       </c>
     </row>
@@ -18188,6 +20654,15 @@
         </is>
       </c>
       <c r="H489" t="n">
+        <v>18</v>
+      </c>
+      <c r="I489" t="n">
+        <v>1.365</v>
+      </c>
+      <c r="J489" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="K489" t="n">
         <v>0.091</v>
       </c>
     </row>
@@ -18226,6 +20701,15 @@
         </is>
       </c>
       <c r="H490" t="n">
+        <v>11</v>
+      </c>
+      <c r="I490" t="n">
+        <v>1.415</v>
+      </c>
+      <c r="J490" t="n">
+        <v>0.503</v>
+      </c>
+      <c r="K490" t="n">
         <v>0.089</v>
       </c>
     </row>
@@ -18264,6 +20748,15 @@
         </is>
       </c>
       <c r="H491" t="n">
+        <v>9</v>
+      </c>
+      <c r="I491" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J491" t="n">
+        <v>0.503</v>
+      </c>
+      <c r="K491" t="n">
         <v>0.089</v>
       </c>
     </row>
@@ -18302,6 +20795,15 @@
         </is>
       </c>
       <c r="H492" t="n">
+        <v>10</v>
+      </c>
+      <c r="I492" t="n">
+        <v>1.411</v>
+      </c>
+      <c r="J492" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="K492" t="n">
         <v>0.091</v>
       </c>
     </row>
@@ -18340,6 +20842,15 @@
         </is>
       </c>
       <c r="H493" t="n">
+        <v>24</v>
+      </c>
+      <c r="I493" t="n">
+        <v>1.482</v>
+      </c>
+      <c r="J493" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="K493" t="n">
         <v>0.353</v>
       </c>
     </row>
@@ -18378,6 +20889,15 @@
         </is>
       </c>
       <c r="H494" t="n">
+        <v>33</v>
+      </c>
+      <c r="I494" t="n">
+        <v>1.474</v>
+      </c>
+      <c r="J494" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="K494" t="n">
         <v>0.355</v>
       </c>
     </row>
@@ -18416,6 +20936,15 @@
         </is>
       </c>
       <c r="H495" t="n">
+        <v>31</v>
+      </c>
+      <c r="I495" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="J495" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="K495" t="n">
         <v>0.353</v>
       </c>
     </row>
@@ -18454,6 +20983,15 @@
         </is>
       </c>
       <c r="H496" t="n">
+        <v>19</v>
+      </c>
+      <c r="I496" t="n">
+        <v>1.479</v>
+      </c>
+      <c r="J496" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="K496" t="n">
         <v>0.354</v>
       </c>
     </row>
@@ -18492,6 +21030,15 @@
         </is>
       </c>
       <c r="H497" t="n">
+        <v>12</v>
+      </c>
+      <c r="I497" t="n">
+        <v>1.457</v>
+      </c>
+      <c r="J497" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="K497" t="n">
         <v>0.129</v>
       </c>
     </row>
@@ -18530,6 +21077,15 @@
         </is>
       </c>
       <c r="H498" t="n">
+        <v>16</v>
+      </c>
+      <c r="I498" t="n">
+        <v>1.435</v>
+      </c>
+      <c r="J498" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="K498" t="n">
         <v>0.129</v>
       </c>
     </row>
@@ -18568,6 +21124,15 @@
         </is>
       </c>
       <c r="H499" t="n">
+        <v>7</v>
+      </c>
+      <c r="I499" t="n">
+        <v>1.509</v>
+      </c>
+      <c r="J499" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="K499" t="n">
         <v>0.128</v>
       </c>
     </row>
@@ -18606,6 +21171,15 @@
         </is>
       </c>
       <c r="H500" t="n">
+        <v>23</v>
+      </c>
+      <c r="I500" t="n">
+        <v>1.383</v>
+      </c>
+      <c r="J500" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="K500" t="n">
         <v>0.131</v>
       </c>
     </row>
@@ -18644,6 +21218,15 @@
         </is>
       </c>
       <c r="H501" t="n">
+        <v>72</v>
+      </c>
+      <c r="I501" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="J501" t="n">
+        <v>0.773</v>
+      </c>
+      <c r="K501" t="n">
         <v>0.646</v>
       </c>
     </row>
@@ -18682,6 +21265,15 @@
         </is>
       </c>
       <c r="H502" t="n">
+        <v>60</v>
+      </c>
+      <c r="I502" t="n">
+        <v>1.116</v>
+      </c>
+      <c r="J502" t="n">
+        <v>0.772</v>
+      </c>
+      <c r="K502" t="n">
         <v>0.648</v>
       </c>
     </row>
@@ -18720,6 +21312,15 @@
         </is>
       </c>
       <c r="H503" t="n">
+        <v>40</v>
+      </c>
+      <c r="I503" t="n">
+        <v>1.148</v>
+      </c>
+      <c r="J503" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="K503" t="n">
         <v>0.642</v>
       </c>
     </row>
@@ -18758,6 +21359,15 @@
         </is>
       </c>
       <c r="H504" t="n">
+        <v>57</v>
+      </c>
+      <c r="I504" t="n">
+        <v>1.119</v>
+      </c>
+      <c r="J504" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="K504" t="n">
         <v>0.647</v>
       </c>
     </row>
@@ -18796,6 +21406,15 @@
         </is>
       </c>
       <c r="H505" t="n">
+        <v>12</v>
+      </c>
+      <c r="I505" t="n">
+        <v>1.043</v>
+      </c>
+      <c r="J505" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="K505" t="n">
         <v>0.107</v>
       </c>
     </row>
@@ -18834,6 +21453,15 @@
         </is>
       </c>
       <c r="H506" t="n">
+        <v>10</v>
+      </c>
+      <c r="I506" t="n">
+        <v>1.047</v>
+      </c>
+      <c r="J506" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="K506" t="n">
         <v>0.108</v>
       </c>
     </row>
@@ -18872,6 +21500,15 @@
         </is>
       </c>
       <c r="H507" t="n">
+        <v>8</v>
+      </c>
+      <c r="I507" t="n">
+        <v>1.059</v>
+      </c>
+      <c r="J507" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="K507" t="n">
         <v>0.109</v>
       </c>
     </row>
@@ -18910,6 +21547,15 @@
         </is>
       </c>
       <c r="H508" t="n">
+        <v>7</v>
+      </c>
+      <c r="I508" t="n">
+        <v>1.045</v>
+      </c>
+      <c r="J508" t="n">
+        <v>0.498</v>
+      </c>
+      <c r="K508" t="n">
         <v>0.106</v>
       </c>
     </row>
@@ -18948,6 +21594,15 @@
         </is>
       </c>
       <c r="H509" t="n">
+        <v>24</v>
+      </c>
+      <c r="I509" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="J509" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="K509" t="n">
         <v>0.098</v>
       </c>
     </row>
@@ -18986,6 +21641,15 @@
         </is>
       </c>
       <c r="H510" t="n">
+        <v>6</v>
+      </c>
+      <c r="I510" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="J510" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="K510" t="n">
         <v>0.067</v>
       </c>
     </row>
@@ -19024,6 +21688,15 @@
         </is>
       </c>
       <c r="H511" t="n">
+        <v>27</v>
+      </c>
+      <c r="I511" t="n">
+        <v>0.772</v>
+      </c>
+      <c r="J511" t="n">
+        <v>0.673</v>
+      </c>
+      <c r="K511" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -19062,6 +21735,15 @@
         </is>
       </c>
       <c r="H512" t="n">
+        <v>13</v>
+      </c>
+      <c r="I512" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="J512" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="K512" t="n">
         <v>0.103</v>
       </c>
     </row>
@@ -19100,6 +21782,15 @@
         </is>
       </c>
       <c r="H513" t="n">
+        <v>30</v>
+      </c>
+      <c r="I513" t="n">
+        <v>1.316</v>
+      </c>
+      <c r="J513" t="n">
+        <v>0.699</v>
+      </c>
+      <c r="K513" t="n">
         <v>0.478</v>
       </c>
     </row>
@@ -19138,6 +21829,15 @@
         </is>
       </c>
       <c r="H514" t="n">
+        <v>30</v>
+      </c>
+      <c r="I514" t="n">
+        <v>1.241</v>
+      </c>
+      <c r="J514" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="K514" t="n">
         <v>0.509</v>
       </c>
     </row>
@@ -19176,6 +21876,15 @@
         </is>
       </c>
       <c r="H515" t="n">
+        <v>38</v>
+      </c>
+      <c r="I515" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J515" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="K515" t="n">
         <v>0.505</v>
       </c>
     </row>
@@ -19214,6 +21923,15 @@
         </is>
       </c>
       <c r="H516" t="n">
+        <v>20</v>
+      </c>
+      <c r="I516" t="n">
+        <v>1.235</v>
+      </c>
+      <c r="J516" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="K516" t="n">
         <v>0.503</v>
       </c>
     </row>
@@ -19252,6 +21970,15 @@
         </is>
       </c>
       <c r="H517" t="n">
+        <v>32</v>
+      </c>
+      <c r="I517" t="n">
+        <v>1.002</v>
+      </c>
+      <c r="J517" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="K517" t="n">
         <v>0.148</v>
       </c>
     </row>
@@ -19290,6 +22017,15 @@
         </is>
       </c>
       <c r="H518" t="n">
+        <v>28</v>
+      </c>
+      <c r="I518" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="J518" t="n">
+        <v>0.638</v>
+      </c>
+      <c r="K518" t="n">
         <v>0.144</v>
       </c>
     </row>
@@ -19328,6 +22064,15 @@
         </is>
       </c>
       <c r="H519" t="n">
+        <v>28</v>
+      </c>
+      <c r="I519" t="n">
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="J519" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="K519" t="n">
         <v>0.157</v>
       </c>
     </row>
@@ -19366,6 +22111,15 @@
         </is>
       </c>
       <c r="H520" t="n">
+        <v>23</v>
+      </c>
+      <c r="I520" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="J520" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="K520" t="n">
         <v>0.146</v>
       </c>
     </row>
@@ -19404,6 +22158,15 @@
         </is>
       </c>
       <c r="H521" t="n">
+        <v>130</v>
+      </c>
+      <c r="I521" t="n">
+        <v>0.659</v>
+      </c>
+      <c r="J521" t="n">
+        <v>0.781</v>
+      </c>
+      <c r="K521" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -19442,6 +22205,15 @@
         </is>
       </c>
       <c r="H522" t="n">
+        <v>109</v>
+      </c>
+      <c r="I522" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="J522" t="n">
+        <v>0.769</v>
+      </c>
+      <c r="K522" t="n">
         <v>0.436</v>
       </c>
     </row>
@@ -19480,6 +22252,15 @@
         </is>
       </c>
       <c r="H523" t="n">
+        <v>115</v>
+      </c>
+      <c r="I523" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="J523" t="n">
+        <v>0.786</v>
+      </c>
+      <c r="K523" t="n">
         <v>0.464</v>
       </c>
     </row>
@@ -19518,6 +22299,15 @@
         </is>
       </c>
       <c r="H524" t="n">
+        <v>106</v>
+      </c>
+      <c r="I524" t="n">
+        <v>0.674</v>
+      </c>
+      <c r="J524" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="K524" t="n">
         <v>0.409</v>
       </c>
     </row>
@@ -19556,6 +22346,15 @@
         </is>
       </c>
       <c r="H525" t="n">
+        <v>8</v>
+      </c>
+      <c r="I525" t="n">
+        <v>1.374</v>
+      </c>
+      <c r="J525" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="K525" t="n">
         <v>0.043</v>
       </c>
     </row>
@@ -19594,6 +22393,15 @@
         </is>
       </c>
       <c r="H526" t="n">
+        <v>12</v>
+      </c>
+      <c r="I526" t="n">
+        <v>1.341</v>
+      </c>
+      <c r="J526" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="K526" t="n">
         <v>0.043</v>
       </c>
     </row>
@@ -19632,6 +22440,15 @@
         </is>
       </c>
       <c r="H527" t="n">
+        <v>7</v>
+      </c>
+      <c r="I527" t="n">
+        <v>1.422</v>
+      </c>
+      <c r="J527" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="K527" t="n">
         <v>0.043</v>
       </c>
     </row>
@@ -19670,6 +22487,15 @@
         </is>
       </c>
       <c r="H528" t="n">
+        <v>8</v>
+      </c>
+      <c r="I528" t="n">
+        <v>1.376</v>
+      </c>
+      <c r="J528" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="K528" t="n">
         <v>0.043</v>
       </c>
     </row>
@@ -19708,6 +22534,15 @@
         </is>
       </c>
       <c r="H529" t="n">
+        <v>19</v>
+      </c>
+      <c r="I529" t="n">
+        <v>1.306</v>
+      </c>
+      <c r="J529" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="K529" t="n">
         <v>0.091</v>
       </c>
     </row>
@@ -19746,6 +22581,15 @@
         </is>
       </c>
       <c r="H530" t="n">
+        <v>29</v>
+      </c>
+      <c r="I530" t="n">
+        <v>1.253</v>
+      </c>
+      <c r="J530" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="K530" t="n">
         <v>0.092</v>
       </c>
     </row>
@@ -19784,6 +22628,15 @@
         </is>
       </c>
       <c r="H531" t="n">
+        <v>14</v>
+      </c>
+      <c r="I531" t="n">
+        <v>1.361</v>
+      </c>
+      <c r="J531" t="n">
+        <v>0.503</v>
+      </c>
+      <c r="K531" t="n">
         <v>0.089</v>
       </c>
     </row>
@@ -19822,6 +22675,15 @@
         </is>
       </c>
       <c r="H532" t="n">
+        <v>16</v>
+      </c>
+      <c r="I532" t="n">
+        <v>1.316</v>
+      </c>
+      <c r="J532" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="K532" t="n">
         <v>0.092</v>
       </c>
     </row>
@@ -19860,6 +22722,15 @@
         </is>
       </c>
       <c r="H533" t="n">
+        <v>11</v>
+      </c>
+      <c r="I533" t="n">
+        <v>1.479</v>
+      </c>
+      <c r="J533" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="K533" t="n">
         <v>0.346</v>
       </c>
     </row>
@@ -19898,6 +22769,15 @@
         </is>
       </c>
       <c r="H534" t="n">
+        <v>7</v>
+      </c>
+      <c r="I534" t="n">
+        <v>1.488</v>
+      </c>
+      <c r="J534" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="K534" t="n">
         <v>0.346</v>
       </c>
     </row>
@@ -19936,6 +22816,15 @@
         </is>
       </c>
       <c r="H535" t="n">
+        <v>11</v>
+      </c>
+      <c r="I535" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="J535" t="n">
+        <v>0.501</v>
+      </c>
+      <c r="K535" t="n">
         <v>0.345</v>
       </c>
     </row>
@@ -19974,6 +22863,15 @@
         </is>
       </c>
       <c r="H536" t="n">
+        <v>14</v>
+      </c>
+      <c r="I536" t="n">
+        <v>1.473</v>
+      </c>
+      <c r="J536" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="K536" t="n">
         <v>0.346</v>
       </c>
     </row>
@@ -20012,6 +22910,15 @@
         </is>
       </c>
       <c r="H537" t="n">
+        <v>10</v>
+      </c>
+      <c r="I537" t="n">
+        <v>1.409</v>
+      </c>
+      <c r="J537" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="K537" t="n">
         <v>0.129</v>
       </c>
     </row>
@@ -20050,6 +22957,15 @@
         </is>
       </c>
       <c r="H538" t="n">
+        <v>12</v>
+      </c>
+      <c r="I538" t="n">
+        <v>1.396</v>
+      </c>
+      <c r="J538" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="K538" t="n">
         <v>0.129</v>
       </c>
     </row>
@@ -20088,6 +23004,15 @@
         </is>
       </c>
       <c r="H539" t="n">
+        <v>12</v>
+      </c>
+      <c r="I539" t="n">
+        <v>1.428</v>
+      </c>
+      <c r="J539" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="K539" t="n">
         <v>0.129</v>
       </c>
     </row>
@@ -20126,6 +23051,15 @@
         </is>
       </c>
       <c r="H540" t="n">
+        <v>12</v>
+      </c>
+      <c r="I540" t="n">
+        <v>1.397</v>
+      </c>
+      <c r="J540" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="K540" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -20164,6 +23098,15 @@
         </is>
       </c>
       <c r="H541" t="n">
+        <v>57</v>
+      </c>
+      <c r="I541" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="J541" t="n">
+        <v>0.769</v>
+      </c>
+      <c r="K541" t="n">
         <v>0.646</v>
       </c>
     </row>
@@ -20202,6 +23145,15 @@
         </is>
       </c>
       <c r="H542" t="n">
+        <v>57</v>
+      </c>
+      <c r="I542" t="n">
+        <v>1.123</v>
+      </c>
+      <c r="J542" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="K542" t="n">
         <v>0.649</v>
       </c>
     </row>
@@ -20240,6 +23192,15 @@
         </is>
       </c>
       <c r="H543" t="n">
+        <v>44</v>
+      </c>
+      <c r="I543" t="n">
+        <v>1.141</v>
+      </c>
+      <c r="J543" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="K543" t="n">
         <v>0.641</v>
       </c>
     </row>
@@ -20278,6 +23239,15 @@
         </is>
       </c>
       <c r="H544" t="n">
+        <v>66</v>
+      </c>
+      <c r="I544" t="n">
+        <v>1.108</v>
+      </c>
+      <c r="J544" t="n">
+        <v>0.769</v>
+      </c>
+      <c r="K544" t="n">
         <v>0.648</v>
       </c>
     </row>
@@ -20316,6 +23286,15 @@
         </is>
       </c>
       <c r="H545" t="n">
+        <v>24</v>
+      </c>
+      <c r="I545" t="n">
+        <v>1.017</v>
+      </c>
+      <c r="J545" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="K545" t="n">
         <v>0.119</v>
       </c>
     </row>
@@ -20354,6 +23333,15 @@
         </is>
       </c>
       <c r="H546" t="n">
+        <v>28</v>
+      </c>
+      <c r="I546" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="J546" t="n">
+        <v>0.587</v>
+      </c>
+      <c r="K546" t="n">
         <v>0.125</v>
       </c>
     </row>
@@ -20392,6 +23380,15 @@
         </is>
       </c>
       <c r="H547" t="n">
+        <v>25</v>
+      </c>
+      <c r="I547" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="J547" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="K547" t="n">
         <v>0.125</v>
       </c>
     </row>
@@ -20430,6 +23427,15 @@
         </is>
       </c>
       <c r="H548" t="n">
+        <v>11</v>
+      </c>
+      <c r="I548" t="n">
+        <v>1.018</v>
+      </c>
+      <c r="J548" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="K548" t="n">
         <v>0.107</v>
       </c>
     </row>
@@ -20468,6 +23474,15 @@
         </is>
       </c>
       <c r="H549" t="n">
+        <v>28</v>
+      </c>
+      <c r="I549" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="J549" t="n">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="K549" t="n">
         <v>0.156</v>
       </c>
     </row>
@@ -20506,6 +23521,15 @@
         </is>
       </c>
       <c r="H550" t="n">
+        <v>30</v>
+      </c>
+      <c r="I550" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="J550" t="n">
+        <v>0.681</v>
+      </c>
+      <c r="K550" t="n">
         <v>0.142</v>
       </c>
     </row>
@@ -20544,6 +23568,15 @@
         </is>
       </c>
       <c r="H551" t="n">
+        <v>32</v>
+      </c>
+      <c r="I551" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J551" t="n">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="K551" t="n">
         <v>0.148</v>
       </c>
     </row>
@@ -20582,6 +23615,15 @@
         </is>
       </c>
       <c r="H552" t="n">
+        <v>34</v>
+      </c>
+      <c r="I552" t="n">
+        <v>0.742</v>
+      </c>
+      <c r="J552" t="n">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="K552" t="n">
         <v>0.167</v>
       </c>
     </row>
@@ -20620,6 +23662,15 @@
         </is>
       </c>
       <c r="H553" t="n">
+        <v>25</v>
+      </c>
+      <c r="I553" t="n">
+        <v>1.322</v>
+      </c>
+      <c r="J553" t="n">
+        <v>0.707</v>
+      </c>
+      <c r="K553" t="n">
         <v>0.486</v>
       </c>
     </row>
@@ -20658,6 +23709,15 @@
         </is>
       </c>
       <c r="H554" t="n">
+        <v>19</v>
+      </c>
+      <c r="I554" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="J554" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="K554" t="n">
         <v>0.488</v>
       </c>
     </row>
@@ -20696,6 +23756,15 @@
         </is>
       </c>
       <c r="H555" t="n">
+        <v>19</v>
+      </c>
+      <c r="I555" t="n">
+        <v>1.254</v>
+      </c>
+      <c r="J555" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="K555" t="n">
         <v>0.492</v>
       </c>
     </row>
@@ -20734,6 +23803,15 @@
         </is>
       </c>
       <c r="H556" t="n">
+        <v>20</v>
+      </c>
+      <c r="I556" t="n">
+        <v>1.235</v>
+      </c>
+      <c r="J556" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="K556" t="n">
         <v>0.505</v>
       </c>
     </row>
@@ -20772,6 +23850,15 @@
         </is>
       </c>
       <c r="H557" t="n">
+        <v>30</v>
+      </c>
+      <c r="I557" t="n">
+        <v>1.113</v>
+      </c>
+      <c r="J557" t="n">
+        <v>0.641</v>
+      </c>
+      <c r="K557" t="n">
         <v>0.149</v>
       </c>
     </row>
@@ -20810,6 +23897,15 @@
         </is>
       </c>
       <c r="H558" t="n">
+        <v>28</v>
+      </c>
+      <c r="I558" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="J558" t="n">
+        <v>0.668</v>
+      </c>
+      <c r="K558" t="n">
         <v>0.181</v>
       </c>
     </row>
@@ -20848,6 +23944,15 @@
         </is>
       </c>
       <c r="H559" t="n">
+        <v>28</v>
+      </c>
+      <c r="I559" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="J559" t="n">
+        <v>0.663</v>
+      </c>
+      <c r="K559" t="n">
         <v>0.164</v>
       </c>
     </row>
@@ -20886,6 +23991,15 @@
         </is>
       </c>
       <c r="H560" t="n">
+        <v>26</v>
+      </c>
+      <c r="I560" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="J560" t="n">
+        <v>0.642</v>
+      </c>
+      <c r="K560" t="n">
         <v>0.141</v>
       </c>
     </row>
@@ -20924,6 +24038,15 @@
         </is>
       </c>
       <c r="H561" t="n">
+        <v>118</v>
+      </c>
+      <c r="I561" t="n">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="J561" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="K561" t="n">
         <v>0.447</v>
       </c>
     </row>
@@ -20962,6 +24085,15 @@
         </is>
       </c>
       <c r="H562" t="n">
+        <v>95</v>
+      </c>
+      <c r="I562" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="J562" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="K562" t="n">
         <v>0.476</v>
       </c>
     </row>
@@ -21000,6 +24132,15 @@
         </is>
       </c>
       <c r="H563" t="n">
+        <v>109</v>
+      </c>
+      <c r="I563" t="n">
+        <v>0.659</v>
+      </c>
+      <c r="J563" t="n">
+        <v>0.792</v>
+      </c>
+      <c r="K563" t="n">
         <v>0.479</v>
       </c>
     </row>
@@ -21038,6 +24179,15 @@
         </is>
       </c>
       <c r="H564" t="n">
+        <v>131</v>
+      </c>
+      <c r="I564" t="n">
+        <v>0.651</v>
+      </c>
+      <c r="J564" t="n">
+        <v>0.779</v>
+      </c>
+      <c r="K564" t="n">
         <v>0.446</v>
       </c>
     </row>

--- a/project_code/DescEmb/outputs/experiments.xlsx
+++ b/project_code/DescEmb/outputs/experiments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N564"/>
+  <dimension ref="A1:N572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32763,6 +32763,502 @@
         <v>0.446</v>
       </c>
     </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-28/09-17-50</t>
+        </is>
+      </c>
+      <c r="B565" t="b">
+        <v>1</v>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>mlm</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G565" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="H565" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I565" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J565" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K565" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L565" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="M565" t="n">
+        <v>0</v>
+      </c>
+      <c r="N565" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-28/10-31-31</t>
+        </is>
+      </c>
+      <c r="B566" t="b">
+        <v>1</v>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G566" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H566" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I566" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J566" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K566" t="n">
+        <v>430</v>
+      </c>
+      <c r="L566" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="M566" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="N566" t="n">
+        <v>0.044</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-28/12-56-51</t>
+        </is>
+      </c>
+      <c r="B567" t="b">
+        <v>1</v>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H567" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I567" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J567" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K567" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L567" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="M567" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="N567" t="n">
+        <v>0.044</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-28/19-05-24</t>
+        </is>
+      </c>
+      <c r="B568" t="b">
+        <v>1</v>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G568" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H568" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I568" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J568" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K568" t="n">
+        <v>403</v>
+      </c>
+      <c r="L568" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="M568" t="n">
+        <v>0.503</v>
+      </c>
+      <c r="N568" t="n">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-28/21-32-27</t>
+        </is>
+      </c>
+      <c r="B569" t="b">
+        <v>1</v>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G569" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H569" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I569" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J569" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K569" t="n">
+        <v>717</v>
+      </c>
+      <c r="L569" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="M569" t="n">
+        <v>0.503</v>
+      </c>
+      <c r="N569" t="n">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-29/01-07-36</t>
+        </is>
+      </c>
+      <c r="B570" t="b">
+        <v>1</v>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="F570" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G570" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H570" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I570" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J570" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K570" t="n">
+        <v>457</v>
+      </c>
+      <c r="L570" t="n">
+        <v>0.755</v>
+      </c>
+      <c r="M570" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="N570" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-29/03-41-36</t>
+        </is>
+      </c>
+      <c r="B571" t="b">
+        <v>1</v>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G571" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H571" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I571" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J571" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K571" t="n">
+        <v>423</v>
+      </c>
+      <c r="L571" t="n">
+        <v>0.732</v>
+      </c>
+      <c r="M571" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="N571" t="n">
+        <v>0.091</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-29/06-17-18</t>
+        </is>
+      </c>
+      <c r="B572" t="b">
+        <v>0</v>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H572" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I572" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J572" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K572" t="n">
+        <v>9</v>
+      </c>
+      <c r="L572" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M572" t="n">
+        <v>0.503</v>
+      </c>
+      <c r="N572" t="n">
+        <v>0.089</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/project_code/DescEmb/outputs/experiments.xlsx
+++ b/project_code/DescEmb/outputs/experiments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N572"/>
+  <dimension ref="A1:N582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33247,16 +33247,612 @@
         </is>
       </c>
       <c r="K572" t="n">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="L572" t="n">
-        <v>1.45</v>
+        <v>0.493</v>
       </c>
       <c r="M572" t="n">
-        <v>0.503</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="N572" t="n">
-        <v>0.089</v>
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-29/06-40-43</t>
+        </is>
+      </c>
+      <c r="B573" t="b">
+        <v>0</v>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H573" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I573" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J573" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K573" t="inlineStr"/>
+      <c r="L573" t="inlineStr"/>
+      <c r="M573" t="inlineStr"/>
+      <c r="N573" t="inlineStr"/>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-29/06-45-17</t>
+        </is>
+      </c>
+      <c r="B574" t="b">
+        <v>1</v>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>mlm</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="F574" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G574" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="H574" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I574" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J574" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K574" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L574" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="M574" t="n">
+        <v>0</v>
+      </c>
+      <c r="N574" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-29/07-26-37</t>
+        </is>
+      </c>
+      <c r="B575" t="b">
+        <v>1</v>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G575" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H575" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I575" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J575" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K575" t="n">
+        <v>223</v>
+      </c>
+      <c r="L575" t="n">
+        <v>1.128</v>
+      </c>
+      <c r="M575" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="N575" t="n">
+        <v>0.637</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-29/08-43-07</t>
+        </is>
+      </c>
+      <c r="B576" t="b">
+        <v>1</v>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="F576" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H576" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I576" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J576" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K576" t="n">
+        <v>333</v>
+      </c>
+      <c r="L576" t="n">
+        <v>1.141</v>
+      </c>
+      <c r="M576" t="n">
+        <v>0.768</v>
+      </c>
+      <c r="N576" t="n">
+        <v>0.638</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-29/10-47-28</t>
+        </is>
+      </c>
+      <c r="B577" t="b">
+        <v>0</v>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="F577" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G577" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H577" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I577" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J577" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K577" t="inlineStr"/>
+      <c r="L577" t="inlineStr"/>
+      <c r="M577" t="inlineStr"/>
+      <c r="N577" t="inlineStr"/>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-29/10-47-31</t>
+        </is>
+      </c>
+      <c r="B578" t="b">
+        <v>1</v>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="F578" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G578" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H578" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I578" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J578" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K578" t="n">
+        <v>269</v>
+      </c>
+      <c r="L578" t="n">
+        <v>1.104</v>
+      </c>
+      <c r="M578" t="n">
+        <v>0.768</v>
+      </c>
+      <c r="N578" t="n">
+        <v>0.638</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-29/12-09-48</t>
+        </is>
+      </c>
+      <c r="B579" t="b">
+        <v>1</v>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="F579" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H579" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I579" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J579" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K579" t="n">
+        <v>195</v>
+      </c>
+      <c r="L579" t="n">
+        <v>1.683</v>
+      </c>
+      <c r="M579" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="N579" t="n">
+        <v>0.348</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-29/13-15-34</t>
+        </is>
+      </c>
+      <c r="B580" t="b">
+        <v>1</v>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G580" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H580" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I580" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J580" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K580" t="n">
+        <v>191</v>
+      </c>
+      <c r="L580" t="n">
+        <v>1.669</v>
+      </c>
+      <c r="M580" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="N580" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-29/14-26-06</t>
+        </is>
+      </c>
+      <c r="B581" t="b">
+        <v>0</v>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H581" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I581" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J581" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K581" t="inlineStr"/>
+      <c r="L581" t="inlineStr"/>
+      <c r="M581" t="inlineStr"/>
+      <c r="N581" t="inlineStr"/>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-29/14-26-09</t>
+        </is>
+      </c>
+      <c r="B582" t="b">
+        <v>0</v>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H582" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I582" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J582" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K582" t="n">
+        <v>61</v>
+      </c>
+      <c r="L582" t="n">
+        <v>1.525</v>
+      </c>
+      <c r="M582" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="N582" t="n">
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>

--- a/project_code/DescEmb/outputs/experiments.xlsx
+++ b/project_code/DescEmb/outputs/experiments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N582"/>
+  <dimension ref="A1:N594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33800,7 +33800,7 @@
         </is>
       </c>
       <c r="B582" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C582" t="inlineStr">
         <is>
@@ -33843,16 +33843,736 @@
         </is>
       </c>
       <c r="K582" t="n">
-        <v>61</v>
+        <v>208</v>
       </c>
       <c r="L582" t="n">
-        <v>1.525</v>
+        <v>1.629</v>
       </c>
       <c r="M582" t="n">
-        <v>0.511</v>
+        <v>0.515</v>
       </c>
       <c r="N582" t="n">
         <v>0.35</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-29/15-28-54</t>
+        </is>
+      </c>
+      <c r="B583" t="b">
+        <v>1</v>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H583" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I583" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J583" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K583" t="n">
+        <v>194</v>
+      </c>
+      <c r="L583" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="M583" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="N583" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-29/16-34-44</t>
+        </is>
+      </c>
+      <c r="B584" t="b">
+        <v>1</v>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H584" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I584" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J584" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K584" t="n">
+        <v>427</v>
+      </c>
+      <c r="L584" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="M584" t="n">
+        <v>0.514</v>
+      </c>
+      <c r="N584" t="n">
+        <v>0.132</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-29/19-12-24</t>
+        </is>
+      </c>
+      <c r="B585" t="b">
+        <v>0</v>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G585" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H585" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I585" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J585" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K585" t="inlineStr"/>
+      <c r="L585" t="inlineStr"/>
+      <c r="M585" t="inlineStr"/>
+      <c r="N585" t="inlineStr"/>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-29/19-12-26</t>
+        </is>
+      </c>
+      <c r="B586" t="b">
+        <v>1</v>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I586" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J586" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K586" t="n">
+        <v>217</v>
+      </c>
+      <c r="L586" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="M586" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="N586" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-29/20-17-52</t>
+        </is>
+      </c>
+      <c r="B587" t="b">
+        <v>1</v>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I587" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J587" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K587" t="n">
+        <v>471</v>
+      </c>
+      <c r="L587" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="M587" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="N587" t="n">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-29/22-56-58</t>
+        </is>
+      </c>
+      <c r="B588" t="b">
+        <v>1</v>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G588" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I588" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J588" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K588" t="n">
+        <v>193</v>
+      </c>
+      <c r="L588" t="n">
+        <v>0.607</v>
+      </c>
+      <c r="M588" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="N588" t="n">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-30/00-08-11</t>
+        </is>
+      </c>
+      <c r="B589" t="b">
+        <v>0</v>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H589" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I589" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J589" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K589" t="inlineStr"/>
+      <c r="L589" t="inlineStr"/>
+      <c r="M589" t="inlineStr"/>
+      <c r="N589" t="inlineStr"/>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-30/00-08-13</t>
+        </is>
+      </c>
+      <c r="B590" t="b">
+        <v>1</v>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G590" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H590" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I590" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J590" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K590" t="n">
+        <v>246</v>
+      </c>
+      <c r="L590" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="M590" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="N590" t="n">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-30/01-22-03</t>
+        </is>
+      </c>
+      <c r="B591" t="b">
+        <v>1</v>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I591" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J591" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K591" t="n">
+        <v>195</v>
+      </c>
+      <c r="L591" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="M591" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="N591" t="n">
+        <v>0.092</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-30/02-27-44</t>
+        </is>
+      </c>
+      <c r="B592" t="b">
+        <v>1</v>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G592" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I592" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J592" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K592" t="n">
+        <v>198</v>
+      </c>
+      <c r="L592" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="M592" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="N592" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-30/03-40-49</t>
+        </is>
+      </c>
+      <c r="B593" t="b">
+        <v>0</v>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G593" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I593" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J593" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K593" t="inlineStr"/>
+      <c r="L593" t="inlineStr"/>
+      <c r="M593" t="inlineStr"/>
+      <c r="N593" t="inlineStr"/>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-30/03-40-52</t>
+        </is>
+      </c>
+      <c r="B594" t="b">
+        <v>1</v>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G594" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H594" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I594" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J594" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K594" t="n">
+        <v>211</v>
+      </c>
+      <c r="L594" t="n">
+        <v>0.837</v>
+      </c>
+      <c r="M594" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="N594" t="n">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>

--- a/project_code/DescEmb/outputs/experiments.xlsx
+++ b/project_code/DescEmb/outputs/experiments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N594"/>
+  <dimension ref="A1:N609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34575,6 +34575,888 @@
         <v>0.09</v>
       </c>
     </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-30/06-08-30</t>
+        </is>
+      </c>
+      <c r="B595" t="b">
+        <v>0</v>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G595" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H595" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I595" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J595" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K595" t="inlineStr"/>
+      <c r="L595" t="inlineStr"/>
+      <c r="M595" t="inlineStr"/>
+      <c r="N595" t="inlineStr"/>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-30/06-08-33</t>
+        </is>
+      </c>
+      <c r="B596" t="b">
+        <v>0</v>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G596" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I596" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J596" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K596" t="inlineStr"/>
+      <c r="L596" t="inlineStr"/>
+      <c r="M596" t="inlineStr"/>
+      <c r="N596" t="inlineStr"/>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-30/06-12-43</t>
+        </is>
+      </c>
+      <c r="B597" t="b">
+        <v>0</v>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G597" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I597" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J597" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K597" t="inlineStr"/>
+      <c r="L597" t="inlineStr"/>
+      <c r="M597" t="inlineStr"/>
+      <c r="N597" t="inlineStr"/>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-30/06-14-20</t>
+        </is>
+      </c>
+      <c r="B598" t="b">
+        <v>1</v>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G598" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I598" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J598" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K598" t="n">
+        <v>241</v>
+      </c>
+      <c r="L598" t="n">
+        <v>0.823</v>
+      </c>
+      <c r="M598" t="n">
+        <v>0.772</v>
+      </c>
+      <c r="N598" t="n">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-30/07-42-04</t>
+        </is>
+      </c>
+      <c r="B599" t="b">
+        <v>1</v>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G599" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H599" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I599" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J599" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K599" t="n">
+        <v>224</v>
+      </c>
+      <c r="L599" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="M599" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="N599" t="n">
+        <v>0.484</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-30/09-06-18</t>
+        </is>
+      </c>
+      <c r="B600" t="b">
+        <v>0</v>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G600" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H600" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I600" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J600" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K600" t="inlineStr"/>
+      <c r="L600" t="inlineStr"/>
+      <c r="M600" t="inlineStr"/>
+      <c r="N600" t="inlineStr"/>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-30/09-06-21</t>
+        </is>
+      </c>
+      <c r="B601" t="b">
+        <v>1</v>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I601" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J601" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K601" t="n">
+        <v>270</v>
+      </c>
+      <c r="L601" t="n">
+        <v>0.6830000000000001</v>
+      </c>
+      <c r="M601" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="N601" t="n">
+        <v>0.447</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-30/10-37-13</t>
+        </is>
+      </c>
+      <c r="B602" t="b">
+        <v>1</v>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I602" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J602" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K602" t="n">
+        <v>244</v>
+      </c>
+      <c r="L602" t="n">
+        <v>3.399</v>
+      </c>
+      <c r="M602" t="n">
+        <v>0.698</v>
+      </c>
+      <c r="N602" t="n">
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-30/12-03-53</t>
+        </is>
+      </c>
+      <c r="B603" t="b">
+        <v>1</v>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I603" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J603" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K603" t="n">
+        <v>103</v>
+      </c>
+      <c r="L603" t="n">
+        <v>2.338</v>
+      </c>
+      <c r="M603" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="N603" t="n">
+        <v>0.481</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-30/12-41-35</t>
+        </is>
+      </c>
+      <c r="B604" t="b">
+        <v>0</v>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I604" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J604" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K604" t="inlineStr"/>
+      <c r="L604" t="inlineStr"/>
+      <c r="M604" t="inlineStr"/>
+      <c r="N604" t="inlineStr"/>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-30/12-41-38</t>
+        </is>
+      </c>
+      <c r="B605" t="b">
+        <v>1</v>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H605" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I605" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J605" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K605" t="n">
+        <v>128</v>
+      </c>
+      <c r="L605" t="n">
+        <v>2.395</v>
+      </c>
+      <c r="M605" t="n">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="N605" t="n">
+        <v>0.465</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-30/13-23-34</t>
+        </is>
+      </c>
+      <c r="B606" t="b">
+        <v>1</v>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H606" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I606" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J606" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K606" t="n">
+        <v>244</v>
+      </c>
+      <c r="L606" t="n">
+        <v>2.006</v>
+      </c>
+      <c r="M606" t="n">
+        <v>0.641</v>
+      </c>
+      <c r="N606" t="n">
+        <v>0.165</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-30/14-50-12</t>
+        </is>
+      </c>
+      <c r="B607" t="b">
+        <v>1</v>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>DSVA</t>
+        </is>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I607" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J607" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K607" t="n">
+        <v>151</v>
+      </c>
+      <c r="L607" t="n">
+        <v>1.758</v>
+      </c>
+      <c r="M607" t="n">
+        <v>0.649</v>
+      </c>
+      <c r="N607" t="n">
+        <v>0.168</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-30/15-45-20</t>
+        </is>
+      </c>
+      <c r="B608" t="b">
+        <v>0</v>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I608" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J608" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K608" t="inlineStr"/>
+      <c r="L608" t="inlineStr"/>
+      <c r="M608" t="inlineStr"/>
+      <c r="N608" t="inlineStr"/>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>outputs/2024-04-30/15-45-22</t>
+        </is>
+      </c>
+      <c r="B609" t="b">
+        <v>0</v>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>VC</t>
+        </is>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="I609" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="J609" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K609" t="n">
+        <v>60</v>
+      </c>
+      <c r="L609" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="M609" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="N609" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/project_code/DescEmb/outputs/experiments.xlsx
+++ b/project_code/DescEmb/outputs/experiments.xlsx
@@ -4031,7 +4031,7 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -4095,7 +4095,7 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -4351,7 +4351,7 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -4415,7 +4415,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -4671,7 +4671,7 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -4735,7 +4735,7 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -4799,7 +4799,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -4863,7 +4863,7 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -4927,7 +4927,7 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -5055,7 +5055,7 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -5951,7 +5951,7 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -6015,7 +6015,7 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -6079,7 +6079,7 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -6143,7 +6143,7 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -6207,7 +6207,7 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -6271,7 +6271,7 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -6335,7 +6335,7 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -6399,7 +6399,7 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -6463,7 +6463,7 @@
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -6975,7 +6975,7 @@
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -7039,7 +7039,7 @@
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -7103,7 +7103,7 @@
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -7167,7 +7167,7 @@
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -7231,7 +7231,7 @@
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -7295,7 +7295,7 @@
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -7359,7 +7359,7 @@
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -7423,7 +7423,7 @@
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -7487,7 +7487,7 @@
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -7615,7 +7615,7 @@
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -9983,7 +9983,7 @@
       </c>
       <c r="P149" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -10047,7 +10047,7 @@
       </c>
       <c r="P150" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -10111,7 +10111,7 @@
       </c>
       <c r="P151" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -10175,7 +10175,7 @@
       </c>
       <c r="P152" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -10239,7 +10239,7 @@
       </c>
       <c r="P153" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -10303,7 +10303,7 @@
       </c>
       <c r="P154" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -10367,7 +10367,7 @@
       </c>
       <c r="P155" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -10431,7 +10431,7 @@
       </c>
       <c r="P156" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -10495,7 +10495,7 @@
       </c>
       <c r="P157" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -10559,7 +10559,7 @@
       </c>
       <c r="P158" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -10623,7 +10623,7 @@
       </c>
       <c r="P159" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -10687,7 +10687,7 @@
       </c>
       <c r="P160" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -10751,7 +10751,7 @@
       </c>
       <c r="P161" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -10815,7 +10815,7 @@
       </c>
       <c r="P162" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -10879,7 +10879,7 @@
       </c>
       <c r="P163" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -10943,7 +10943,7 @@
       </c>
       <c r="P164" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -11007,7 +11007,7 @@
       </c>
       <c r="P165" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -11071,7 +11071,7 @@
       </c>
       <c r="P166" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -11135,7 +11135,7 @@
       </c>
       <c r="P167" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -11199,7 +11199,7 @@
       </c>
       <c r="P168" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -12607,7 +12607,7 @@
       </c>
       <c r="P190" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -12671,7 +12671,7 @@
       </c>
       <c r="P191" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -12735,7 +12735,7 @@
       </c>
       <c r="P192" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -12863,7 +12863,7 @@
       </c>
       <c r="P194" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -12927,7 +12927,7 @@
       </c>
       <c r="P195" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -12991,7 +12991,7 @@
       </c>
       <c r="P196" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -13055,7 +13055,7 @@
       </c>
       <c r="P197" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -13119,7 +13119,7 @@
       </c>
       <c r="P198" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -13183,7 +13183,7 @@
       </c>
       <c r="P199" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -13247,7 +13247,7 @@
       </c>
       <c r="P200" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -13311,7 +13311,7 @@
       </c>
       <c r="P201" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -13375,7 +13375,7 @@
       </c>
       <c r="P202" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -13439,7 +13439,7 @@
       </c>
       <c r="P203" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -13503,7 +13503,7 @@
       </c>
       <c r="P204" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -13567,7 +13567,7 @@
       </c>
       <c r="P205" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -13631,7 +13631,7 @@
       </c>
       <c r="P206" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -13695,7 +13695,7 @@
       </c>
       <c r="P207" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -13759,7 +13759,7 @@
       </c>
       <c r="P208" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -13823,7 +13823,7 @@
       </c>
       <c r="P209" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>
@@ -13887,7 +13887,7 @@
       </c>
       <c r="P210" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Scr-MLM</t>
         </is>
       </c>
     </row>

--- a/project_code/DescEmb/outputs/experiments.xlsx
+++ b/project_code/DescEmb/outputs/experiments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q498"/>
+  <dimension ref="A1:Q507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31729,7 +31729,7 @@
       <c r="P454" t="inlineStr"/>
       <c r="Q454" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Transfer</t>
         </is>
       </c>
     </row>
@@ -31790,7 +31790,7 @@
       <c r="P455" t="inlineStr"/>
       <c r="Q455" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Transfer</t>
         </is>
       </c>
     </row>
@@ -31851,7 +31851,7 @@
       <c r="P456" t="inlineStr"/>
       <c r="Q456" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Transfer</t>
         </is>
       </c>
     </row>
@@ -34568,7 +34568,7 @@
       </c>
       <c r="Q497" t="inlineStr">
         <is>
-          <t>DescEmb-RNN_Scr</t>
+          <t>DescEmb-RNN_Transfer</t>
         </is>
       </c>
     </row>
@@ -34633,6 +34633,627 @@
         </is>
       </c>
     </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>outputs/2024-05-06/05-12-10</t>
+        </is>
+      </c>
+      <c r="B499" t="b">
+        <v>1</v>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H499" t="b">
+        <v>0</v>
+      </c>
+      <c r="I499" t="b">
+        <v>0</v>
+      </c>
+      <c r="J499" t="b">
+        <v>0</v>
+      </c>
+      <c r="K499" t="b">
+        <v>1</v>
+      </c>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="M499" t="n">
+        <v>75</v>
+      </c>
+      <c r="N499" t="n">
+        <v>1.519</v>
+      </c>
+      <c r="O499" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="P499" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="Q499" t="inlineStr">
+        <is>
+          <t>DescEmb-RNN_Transfer</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>outputs/2024-05-06/05-39-05</t>
+        </is>
+      </c>
+      <c r="B500" t="b">
+        <v>1</v>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H500" t="b">
+        <v>0</v>
+      </c>
+      <c r="I500" t="b">
+        <v>0</v>
+      </c>
+      <c r="J500" t="b">
+        <v>0</v>
+      </c>
+      <c r="K500" t="b">
+        <v>1</v>
+      </c>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="M500" t="n">
+        <v>80</v>
+      </c>
+      <c r="N500" t="n">
+        <v>1.178</v>
+      </c>
+      <c r="O500" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="P500" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="Q500" t="inlineStr">
+        <is>
+          <t>DescEmb-RNN_Transfer</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>outputs/2024-05-06/06-07-43</t>
+        </is>
+      </c>
+      <c r="B501" t="b">
+        <v>1</v>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H501" t="b">
+        <v>0</v>
+      </c>
+      <c r="I501" t="b">
+        <v>0</v>
+      </c>
+      <c r="J501" t="b">
+        <v>0</v>
+      </c>
+      <c r="K501" t="b">
+        <v>1</v>
+      </c>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="M501" t="n">
+        <v>113</v>
+      </c>
+      <c r="N501" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="O501" t="n">
+        <v>0.503</v>
+      </c>
+      <c r="P501" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="Q501" t="inlineStr">
+        <is>
+          <t>DescEmb-RNN_Transfer</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>outputs/2024-05-06/06-47-42</t>
+        </is>
+      </c>
+      <c r="B502" t="b">
+        <v>1</v>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H502" t="b">
+        <v>0</v>
+      </c>
+      <c r="I502" t="b">
+        <v>0</v>
+      </c>
+      <c r="J502" t="b">
+        <v>0</v>
+      </c>
+      <c r="K502" t="b">
+        <v>1</v>
+      </c>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="M502" t="n">
+        <v>92</v>
+      </c>
+      <c r="N502" t="n">
+        <v>1.053</v>
+      </c>
+      <c r="O502" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="P502" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q502" t="inlineStr">
+        <is>
+          <t>DescEmb-RNN_Transfer</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>outputs/2024-05-06/07-20-50</t>
+        </is>
+      </c>
+      <c r="B503" t="b">
+        <v>1</v>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H503" t="b">
+        <v>0</v>
+      </c>
+      <c r="I503" t="b">
+        <v>0</v>
+      </c>
+      <c r="J503" t="b">
+        <v>0</v>
+      </c>
+      <c r="K503" t="b">
+        <v>1</v>
+      </c>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="M503" t="n">
+        <v>218</v>
+      </c>
+      <c r="N503" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="O503" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="P503" t="n">
+        <v>0.454</v>
+      </c>
+      <c r="Q503" t="inlineStr">
+        <is>
+          <t>DescEmb-RNN_Transfer</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>outputs/2024-05-06/08-45-45</t>
+        </is>
+      </c>
+      <c r="B504" t="b">
+        <v>1</v>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H504" t="b">
+        <v>0</v>
+      </c>
+      <c r="I504" t="b">
+        <v>0</v>
+      </c>
+      <c r="J504" t="b">
+        <v>0</v>
+      </c>
+      <c r="K504" t="b">
+        <v>1</v>
+      </c>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="M504" t="n">
+        <v>71</v>
+      </c>
+      <c r="N504" t="n">
+        <v>1.538</v>
+      </c>
+      <c r="O504" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="P504" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="Q504" t="inlineStr">
+        <is>
+          <t>DescEmb-RNN_Transfer</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>outputs/2024-05-06/09-12-32</t>
+        </is>
+      </c>
+      <c r="B505" t="b">
+        <v>1</v>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>los_7day</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H505" t="b">
+        <v>0</v>
+      </c>
+      <c r="I505" t="b">
+        <v>0</v>
+      </c>
+      <c r="J505" t="b">
+        <v>0</v>
+      </c>
+      <c r="K505" t="b">
+        <v>1</v>
+      </c>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="M505" t="n">
+        <v>88</v>
+      </c>
+      <c r="N505" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="O505" t="n">
+        <v>0.638</v>
+      </c>
+      <c r="P505" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="Q505" t="inlineStr">
+        <is>
+          <t>DescEmb-RNN_Transfer</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>outputs/2024-05-06/09-45-22</t>
+        </is>
+      </c>
+      <c r="B506" t="b">
+        <v>1</v>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>readmission</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H506" t="b">
+        <v>0</v>
+      </c>
+      <c r="I506" t="b">
+        <v>0</v>
+      </c>
+      <c r="J506" t="b">
+        <v>0</v>
+      </c>
+      <c r="K506" t="b">
+        <v>1</v>
+      </c>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="M506" t="n">
+        <v>47</v>
+      </c>
+      <c r="N506" t="n">
+        <v>1.026</v>
+      </c>
+      <c r="O506" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="P506" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="Q506" t="inlineStr">
+        <is>
+          <t>DescEmb-RNN_Transfer</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>outputs/2024-05-06/10-02-55</t>
+        </is>
+      </c>
+      <c r="B507" t="b">
+        <v>1</v>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>eicu</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>mortality</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H507" t="b">
+        <v>0</v>
+      </c>
+      <c r="I507" t="b">
+        <v>0</v>
+      </c>
+      <c r="J507" t="b">
+        <v>0</v>
+      </c>
+      <c r="K507" t="b">
+        <v>1</v>
+      </c>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="M507" t="n">
+        <v>141</v>
+      </c>
+      <c r="N507" t="n">
+        <v>1.248</v>
+      </c>
+      <c r="O507" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="P507" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="Q507" t="inlineStr">
+        <is>
+          <t>DescEmb-RNN_Transfer</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/project_code/DescEmb/outputs/experiments.xlsx
+++ b/project_code/DescEmb/outputs/experiments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q507"/>
+  <dimension ref="A1:Q512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35254,6 +35254,319 @@
         </is>
       </c>
     </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>outputs/2024-05-06/19-48-27</t>
+        </is>
+      </c>
+      <c r="B508" t="b">
+        <v>0</v>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>VA</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>codeemb</t>
+        </is>
+      </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H508" t="b">
+        <v>1</v>
+      </c>
+      <c r="I508" t="b">
+        <v>0</v>
+      </c>
+      <c r="J508" t="b">
+        <v>0</v>
+      </c>
+      <c r="K508" t="b">
+        <v>0</v>
+      </c>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="M508" t="inlineStr"/>
+      <c r="N508" t="inlineStr"/>
+      <c r="O508" t="inlineStr"/>
+      <c r="P508" t="inlineStr"/>
+      <c r="Q508" t="inlineStr">
+        <is>
+          <t>CodeEmb_W2V</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>outputs/2024-05-06/19-20-34</t>
+        </is>
+      </c>
+      <c r="B509" t="b">
+        <v>1</v>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>mimiciii</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>mlm</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>NV</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>descemb_rnn</t>
+        </is>
+      </c>
+      <c r="H509" t="b">
+        <v>0</v>
+      </c>
+      <c r="I509" t="b">
+        <v>0</v>
+      </c>
+      <c r="J509" t="b">
+        <v>0</v>
+      </c>
+      <c r="K509" t="b">
+        <v>0</v>
+      </c>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="M509" t="n">
+        <v>1000</v>
+      </c>
+      <c r="N509" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="O509" t="n">
+        <v>0</v>
+      </c>
+      <c r="P509" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q509" t="inlineStr">
+        <is>
+          <t>DescEmb-RNN_Pretrain-MLM</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>outputs/2024-05-06/19-49-46</t>
+        </is>
+      </c>
+      <c r="B510" t="b">
+        <v>0</v>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>pooled</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H510" t="b">
+        <v>0</v>
+      </c>
+      <c r="I510" t="b">
+        <v>0</v>
+      </c>
+      <c r="J510" t="b">
+        <v>0</v>
+      </c>
+      <c r="K510" t="b">
+        <v>0</v>
+      </c>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="M510" t="inlineStr"/>
+      <c r="N510" t="inlineStr"/>
+      <c r="O510" t="inlineStr"/>
+      <c r="P510" t="inlineStr"/>
+      <c r="Q510" t="inlineStr">
+        <is>
+          <t>DescEmb-BERT_Pooled</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>outputs/2024-05-06/20-01-31</t>
+        </is>
+      </c>
+      <c r="B511" t="b">
+        <v>0</v>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>pooled</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H511" t="b">
+        <v>0</v>
+      </c>
+      <c r="I511" t="b">
+        <v>0</v>
+      </c>
+      <c r="J511" t="b">
+        <v>0</v>
+      </c>
+      <c r="K511" t="b">
+        <v>0</v>
+      </c>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M511" t="inlineStr"/>
+      <c r="N511" t="inlineStr"/>
+      <c r="O511" t="inlineStr"/>
+      <c r="P511" t="inlineStr"/>
+      <c r="Q511" t="inlineStr">
+        <is>
+          <t>DescEmb-BERT_Pooled</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>outputs/2024-05-06/20-02-21</t>
+        </is>
+      </c>
+      <c r="B512" t="b">
+        <v>0</v>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>pooled</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>los_3day</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>DSVA_DPE</t>
+        </is>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>descemb_bert</t>
+        </is>
+      </c>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>ehr_model</t>
+        </is>
+      </c>
+      <c r="H512" t="b">
+        <v>0</v>
+      </c>
+      <c r="I512" t="b">
+        <v>0</v>
+      </c>
+      <c r="J512" t="b">
+        <v>0</v>
+      </c>
+      <c r="K512" t="b">
+        <v>0</v>
+      </c>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M512" t="inlineStr"/>
+      <c r="N512" t="inlineStr"/>
+      <c r="O512" t="inlineStr"/>
+      <c r="P512" t="inlineStr"/>
+      <c r="Q512" t="inlineStr">
+        <is>
+          <t>DescEmb-BERT_Pooled</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
